--- a/ePO_definitions.xlsx
+++ b/ePO_definitions.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseguraf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ePO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="AttributesNotDefin" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Attibutes" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3369" uniqueCount="1573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3373" uniqueCount="1577">
   <si>
     <t>ClassName</t>
   </si>
@@ -5332,15 +5333,42 @@
     <t>DONE</t>
   </si>
   <si>
-    <t>DONE moved to formal Organisation</t>
+    <t>DONE moved to Organisation</t>
+  </si>
+  <si>
+    <t>DONE, this has been removed. Now ePO uses the epo:Organisation Name (the definition of Name includes and example citing the Legal Name of an Organisation).</t>
+  </si>
+  <si>
+    <t>ACTION POINT FOR EVERIS: CHECK INTO THE XML INSTANCES WHAT ARE THE ACTUAL VALUES PROVIDED</t>
+  </si>
+  <si>
+    <t>DONE, BUT ACTION POINT FOR EVERIS: CHECK INTO THE XML INSTANCES WHAT ARE THE ACTUAL VALUES PROVIDED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -5446,7 +5474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5526,6 +5554,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5679,7 +5713,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5943,24 +5977,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D303" sqref="D303"/>
+    <sheetView tabSelected="1" topLeftCell="A305" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G325" sqref="G325"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.73046875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="36" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="6"/>
-    <col min="7" max="7" width="14.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="6"/>
+    <col min="2" max="2" width="47.3984375" style="2" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="48.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.86328125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.73046875" style="6"/>
+    <col min="7" max="7" width="14.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.73046875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5986,7 +6020,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>129</v>
       </c>
@@ -5998,7 +6032,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>128</v>
       </c>
@@ -6010,7 +6044,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>130</v>
       </c>
@@ -6022,7 +6056,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -6039,7 +6073,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -6056,7 +6090,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="27" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="27" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="25" t="s">
         <v>5</v>
       </c>
@@ -6074,7 +6108,7 @@
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="242.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -6091,7 +6125,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -6105,7 +6139,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -6123,7 +6157,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
@@ -6141,7 +6175,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -6159,7 +6193,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
@@ -6177,7 +6211,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
@@ -6195,7 +6229,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
@@ -6213,7 +6247,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
@@ -6231,7 +6265,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>7</v>
       </c>
@@ -6249,7 +6283,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>7</v>
       </c>
@@ -6267,7 +6301,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>7</v>
       </c>
@@ -6285,7 +6319,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>7</v>
       </c>
@@ -6303,7 +6337,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>7</v>
       </c>
@@ -6321,7 +6355,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
         <v>7</v>
       </c>
@@ -6339,7 +6373,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -6356,7 +6390,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>7</v>
       </c>
@@ -6374,7 +6408,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
         <v>7</v>
       </c>
@@ -6392,7 +6426,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
         <v>7</v>
       </c>
@@ -6410,7 +6444,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
         <v>7</v>
       </c>
@@ -6428,7 +6462,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
         <v>7</v>
       </c>
@@ -6446,7 +6480,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>7</v>
       </c>
@@ -6464,7 +6498,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
         <v>7</v>
       </c>
@@ -6482,7 +6516,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
         <v>7</v>
       </c>
@@ -6500,7 +6534,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
         <v>7</v>
       </c>
@@ -6518,7 +6552,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>7</v>
       </c>
@@ -6536,7 +6570,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -6553,7 +6587,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="2" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="2" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -6570,7 +6604,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="7" t="s">
         <v>9</v>
       </c>
@@ -6588,7 +6622,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -6605,7 +6639,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="7" t="s">
         <v>9</v>
       </c>
@@ -6623,7 +6657,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -6640,7 +6674,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="7" t="s">
         <v>9</v>
       </c>
@@ -6658,7 +6692,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -6675,7 +6709,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
@@ -6692,7 +6726,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
         <v>9</v>
       </c>
@@ -6710,7 +6744,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="7" t="s">
         <v>9</v>
       </c>
@@ -6728,7 +6762,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
         <v>9</v>
       </c>
@@ -6746,7 +6780,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
         <v>9</v>
       </c>
@@ -6764,7 +6798,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>10</v>
       </c>
@@ -6781,7 +6815,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
@@ -6798,7 +6832,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
@@ -6815,7 +6849,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="25" t="s">
         <v>10</v>
       </c>
@@ -6833,7 +6867,7 @@
       <c r="G50" s="26"/>
       <c r="H50" s="26"/>
     </row>
-    <row r="51" spans="1:8" s="2" customFormat="1" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="2" customFormat="1" ht="185.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
@@ -6850,7 +6884,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="2" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="2" customFormat="1" ht="370.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>12</v>
       </c>
@@ -6867,7 +6901,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="7" t="s">
         <v>12</v>
       </c>
@@ -6885,7 +6919,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" s="2" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="2" customFormat="1" ht="356.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>13</v>
       </c>
@@ -6902,7 +6936,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="2" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="2" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>13</v>
       </c>
@@ -6919,7 +6953,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="7" t="s">
         <v>14</v>
       </c>
@@ -6933,7 +6967,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="7" t="s">
         <v>15</v>
       </c>
@@ -6947,7 +6981,7 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="7" t="s">
         <v>16</v>
       </c>
@@ -6961,7 +6995,7 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="7" t="s">
         <v>17</v>
       </c>
@@ -6975,7 +7009,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="7" t="s">
         <v>18</v>
       </c>
@@ -6989,7 +7023,7 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>19</v>
       </c>
@@ -7006,7 +7040,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>19</v>
       </c>
@@ -7023,7 +7057,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="2" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="2" customFormat="1" ht="185.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>19</v>
       </c>
@@ -7040,7 +7074,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>19</v>
       </c>
@@ -7057,7 +7091,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>19</v>
       </c>
@@ -7074,7 +7108,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="2" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
@@ -7091,7 +7125,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="2" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>20</v>
       </c>
@@ -7108,7 +7142,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="2" customFormat="1" ht="213.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>20</v>
       </c>
@@ -7125,7 +7159,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="2" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>20</v>
       </c>
@@ -7142,7 +7176,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="2" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>20</v>
       </c>
@@ -7159,7 +7193,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="2" customFormat="1" ht="370.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
@@ -7176,7 +7210,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="7" t="s">
         <v>21</v>
       </c>
@@ -7188,7 +7222,7 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="2" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>22</v>
       </c>
@@ -7205,7 +7239,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="2" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>22</v>
       </c>
@@ -7222,7 +7256,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="2" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="2" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>22</v>
       </c>
@@ -7239,7 +7273,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="2" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="2" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>22</v>
       </c>
@@ -7256,7 +7290,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="2" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="2" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>22</v>
       </c>
@@ -7273,7 +7307,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="2" customFormat="1" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="2" customFormat="1" ht="242.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>23</v>
       </c>
@@ -7290,7 +7324,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>23</v>
       </c>
@@ -7307,7 +7341,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>23</v>
       </c>
@@ -7324,7 +7358,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="2" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="2" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>23</v>
       </c>
@@ -7341,7 +7375,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="7" t="s">
         <v>24</v>
       </c>
@@ -7355,7 +7389,7 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>25</v>
       </c>
@@ -7372,7 +7406,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>25</v>
       </c>
@@ -7389,7 +7423,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="25" t="s">
         <v>25</v>
       </c>
@@ -7407,7 +7441,7 @@
       <c r="G85" s="26"/>
       <c r="H85" s="26"/>
     </row>
-    <row r="86" spans="1:8" s="2" customFormat="1" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="2" customFormat="1" ht="228" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>26</v>
       </c>
@@ -7424,7 +7458,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>26</v>
       </c>
@@ -7441,7 +7475,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="7" t="s">
         <v>27</v>
       </c>
@@ -7453,7 +7487,7 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
     </row>
-    <row r="89" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="7" t="s">
         <v>28</v>
       </c>
@@ -7465,7 +7499,7 @@
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
     </row>
-    <row r="90" spans="1:8" s="2" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="2" customFormat="1" ht="171" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>29</v>
       </c>
@@ -7482,7 +7516,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="2" customFormat="1" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="2" customFormat="1" ht="228" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>29</v>
       </c>
@@ -7499,7 +7533,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="2" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>29</v>
       </c>
@@ -7516,7 +7550,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>29</v>
       </c>
@@ -7533,7 +7567,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>29</v>
       </c>
@@ -7550,7 +7584,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="7" t="s">
         <v>29</v>
       </c>
@@ -7568,7 +7602,7 @@
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
     </row>
-    <row r="96" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="2" customFormat="1" ht="299.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>29</v>
       </c>
@@ -7585,7 +7619,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="2" customFormat="1" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="2" customFormat="1" ht="270.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>29</v>
       </c>
@@ -7602,7 +7636,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="2" customFormat="1" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="2" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>29</v>
       </c>
@@ -7619,7 +7653,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>29</v>
       </c>
@@ -7636,7 +7670,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>29</v>
       </c>
@@ -7653,7 +7687,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A101" s="13" t="s">
         <v>29</v>
       </c>
@@ -7675,7 +7709,7 @@
       </c>
       <c r="H101" s="2"/>
     </row>
-    <row r="102" spans="1:8" s="2" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="2" customFormat="1" ht="99.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>29</v>
       </c>
@@ -7692,7 +7726,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A103" s="12" t="s">
         <v>30</v>
       </c>
@@ -7712,7 +7746,7 @@
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
     </row>
-    <row r="104" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>30</v>
       </c>
@@ -7729,7 +7763,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="7" t="s">
         <v>31</v>
       </c>
@@ -7743,7 +7777,7 @@
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
     </row>
-    <row r="106" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="13" t="s">
         <v>32</v>
       </c>
@@ -7765,7 +7799,7 @@
       </c>
       <c r="H106" s="2"/>
     </row>
-    <row r="107" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>32</v>
       </c>
@@ -7782,7 +7816,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>32</v>
       </c>
@@ -7799,7 +7833,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>32</v>
       </c>
@@ -7816,7 +7850,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="13" t="s">
         <v>33</v>
       </c>
@@ -7838,7 +7872,7 @@
       </c>
       <c r="H110" s="2"/>
     </row>
-    <row r="111" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="13" t="s">
         <v>33</v>
       </c>
@@ -7860,7 +7894,7 @@
       </c>
       <c r="H111" s="2"/>
     </row>
-    <row r="112" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="13" t="s">
         <v>33</v>
       </c>
@@ -7882,7 +7916,7 @@
       </c>
       <c r="H112" s="2"/>
     </row>
-    <row r="113" spans="1:8" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>33</v>
       </c>
@@ -7899,7 +7933,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="13" t="s">
         <v>33</v>
       </c>
@@ -7921,7 +7955,7 @@
       </c>
       <c r="H114" s="2"/>
     </row>
-    <row r="115" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="13" t="s">
         <v>33</v>
       </c>
@@ -7943,7 +7977,7 @@
       </c>
       <c r="H115" s="2"/>
     </row>
-    <row r="116" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="13" t="s">
         <v>33</v>
       </c>
@@ -7965,7 +7999,7 @@
       </c>
       <c r="H116" s="2"/>
     </row>
-    <row r="117" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="13" t="s">
         <v>33</v>
       </c>
@@ -7987,7 +8021,7 @@
       </c>
       <c r="H117" s="2"/>
     </row>
-    <row r="118" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="13" t="s">
         <v>33</v>
       </c>
@@ -8009,7 +8043,7 @@
       </c>
       <c r="H118" s="2"/>
     </row>
-    <row r="119" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="7" t="s">
         <v>34</v>
       </c>
@@ -8023,7 +8057,7 @@
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
     </row>
-    <row r="120" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="13" t="s">
         <v>35</v>
       </c>
@@ -8045,7 +8079,7 @@
       </c>
       <c r="H120" s="2"/>
     </row>
-    <row r="121" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>35</v>
       </c>
@@ -8062,7 +8096,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="13" t="s">
         <v>35</v>
       </c>
@@ -8084,7 +8118,7 @@
       </c>
       <c r="H122" s="2"/>
     </row>
-    <row r="123" spans="1:8" s="2" customFormat="1" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="2" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>36</v>
       </c>
@@ -8101,7 +8135,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="7" t="s">
         <v>36</v>
       </c>
@@ -8119,7 +8153,7 @@
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
     </row>
-    <row r="125" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="2" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>37</v>
       </c>
@@ -8136,7 +8170,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="2" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
         <v>37</v>
       </c>
@@ -8153,7 +8187,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="2" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>37</v>
       </c>
@@ -8170,7 +8204,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="128" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="2" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
         <v>37</v>
       </c>
@@ -8187,7 +8221,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="2" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
         <v>37</v>
       </c>
@@ -8204,7 +8238,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="2" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
         <v>37</v>
       </c>
@@ -8221,7 +8255,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="2" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
         <v>37</v>
       </c>
@@ -8238,7 +8272,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="7" t="s">
         <v>38</v>
       </c>
@@ -8254,7 +8288,7 @@
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
     </row>
-    <row r="133" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="7" t="s">
         <v>38</v>
       </c>
@@ -8270,7 +8304,7 @@
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
     </row>
-    <row r="134" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="7" t="s">
         <v>38</v>
       </c>
@@ -8286,7 +8320,7 @@
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
     </row>
-    <row r="135" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="7" t="s">
         <v>39</v>
       </c>
@@ -8298,7 +8332,7 @@
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
     </row>
-    <row r="136" spans="1:8" s="2" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="2" customFormat="1" ht="99.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
         <v>40</v>
       </c>
@@ -8315,7 +8349,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="137" spans="1:8" s="2" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="2" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
         <v>40</v>
       </c>
@@ -8332,7 +8366,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="7" t="s">
         <v>41</v>
       </c>
@@ -8346,7 +8380,7 @@
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
     </row>
-    <row r="139" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="7" t="s">
         <v>42</v>
       </c>
@@ -8360,7 +8394,7 @@
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
     </row>
-    <row r="140" spans="1:8" s="2" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="2" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
         <v>43</v>
       </c>
@@ -8377,7 +8411,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="13" t="s">
         <v>43</v>
       </c>
@@ -8399,7 +8433,7 @@
       </c>
       <c r="H141" s="2"/>
     </row>
-    <row r="142" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="7" t="s">
         <v>43</v>
       </c>
@@ -8419,7 +8453,7 @@
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
     </row>
-    <row r="143" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
         <v>43</v>
       </c>
@@ -8436,7 +8470,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
         <v>44</v>
       </c>
@@ -8453,7 +8487,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="7" t="s">
         <v>45</v>
       </c>
@@ -8467,7 +8501,7 @@
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
     </row>
-    <row r="146" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="7" t="s">
         <v>46</v>
       </c>
@@ -8481,7 +8515,7 @@
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
     </row>
-    <row r="147" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="13" t="s">
         <v>47</v>
       </c>
@@ -8501,7 +8535,7 @@
       </c>
       <c r="H147" s="2"/>
     </row>
-    <row r="148" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="12" t="s">
         <v>47</v>
       </c>
@@ -8519,7 +8553,7 @@
       <c r="G148" s="14"/>
       <c r="H148" s="2"/>
     </row>
-    <row r="149" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
         <v>48</v>
       </c>
@@ -8536,7 +8570,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="7" t="s">
         <v>48</v>
       </c>
@@ -8554,7 +8588,7 @@
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
     </row>
-    <row r="151" spans="1:8" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="2" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
         <v>48</v>
       </c>
@@ -8571,7 +8605,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="12" t="s">
         <v>48</v>
       </c>
@@ -8591,7 +8625,7 @@
       <c r="G152" s="14"/>
       <c r="H152" s="2"/>
     </row>
-    <row r="153" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="12" t="s">
         <v>49</v>
       </c>
@@ -8611,7 +8645,7 @@
       <c r="G153" s="14"/>
       <c r="H153" s="2"/>
     </row>
-    <row r="154" spans="1:8" s="2" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="2" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>50</v>
       </c>
@@ -8628,7 +8662,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="13" t="s">
         <v>50</v>
       </c>
@@ -8648,7 +8682,7 @@
       <c r="G155" s="15"/>
       <c r="H155" s="2"/>
     </row>
-    <row r="156" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156" s="13" t="s">
         <v>50</v>
       </c>
@@ -8668,7 +8702,7 @@
       <c r="G156" s="15"/>
       <c r="H156" s="2"/>
     </row>
-    <row r="157" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="13" t="s">
         <v>50</v>
       </c>
@@ -8688,7 +8722,7 @@
       <c r="G157" s="15"/>
       <c r="H157" s="2"/>
     </row>
-    <row r="158" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158" s="7" t="s">
         <v>51</v>
       </c>
@@ -8700,7 +8734,7 @@
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
     </row>
-    <row r="159" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="12" t="s">
         <v>52</v>
       </c>
@@ -8722,7 +8756,7 @@
       </c>
       <c r="H159" s="2"/>
     </row>
-    <row r="160" spans="1:8" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="2" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>52</v>
       </c>
@@ -8739,7 +8773,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161" s="7" t="s">
         <v>52</v>
       </c>
@@ -8757,7 +8791,7 @@
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
     </row>
-    <row r="162" spans="1:8" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="2" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>52</v>
       </c>
@@ -8774,7 +8808,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163" s="12" t="s">
         <v>53</v>
       </c>
@@ -8794,7 +8828,7 @@
       <c r="G163" s="14"/>
       <c r="H163" s="2"/>
     </row>
-    <row r="164" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164" s="12" t="s">
         <v>54</v>
       </c>
@@ -8814,7 +8848,7 @@
       <c r="G164" s="14"/>
       <c r="H164" s="2"/>
     </row>
-    <row r="165" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165" s="12" t="s">
         <v>54</v>
       </c>
@@ -8834,7 +8868,7 @@
       <c r="G165" s="14"/>
       <c r="H165" s="2"/>
     </row>
-    <row r="166" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166" s="12" t="s">
         <v>54</v>
       </c>
@@ -8854,7 +8888,7 @@
       <c r="G166" s="14"/>
       <c r="H166" s="2"/>
     </row>
-    <row r="167" spans="1:8" s="2" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>54</v>
       </c>
@@ -8871,7 +8905,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168" s="12" t="s">
         <v>54</v>
       </c>
@@ -8891,7 +8925,7 @@
       <c r="G168" s="14"/>
       <c r="H168" s="2"/>
     </row>
-    <row r="169" spans="1:8" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="2" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>54</v>
       </c>
@@ -8908,7 +8942,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="170" spans="1:8" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="2" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>54</v>
       </c>
@@ -8925,7 +8959,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171" s="12" t="s">
         <v>54</v>
       </c>
@@ -8945,7 +8979,7 @@
       <c r="G171" s="14"/>
       <c r="H171" s="2"/>
     </row>
-    <row r="172" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172" s="8" t="s">
         <v>55</v>
       </c>
@@ -8959,7 +8993,7 @@
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
     </row>
-    <row r="173" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173" s="7" t="s">
         <v>56</v>
       </c>
@@ -8971,7 +9005,7 @@
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
     </row>
-    <row r="174" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174" s="13" t="s">
         <v>57</v>
       </c>
@@ -8989,7 +9023,7 @@
       <c r="G174" s="15"/>
       <c r="H174" s="2"/>
     </row>
-    <row r="175" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175" s="13" t="s">
         <v>57</v>
       </c>
@@ -9007,7 +9041,7 @@
       <c r="G175" s="15"/>
       <c r="H175" s="2"/>
     </row>
-    <row r="176" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
         <v>58</v>
       </c>
@@ -9022,7 +9056,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="177" spans="1:8" s="2" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="2" customFormat="1" ht="99.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
         <v>58</v>
       </c>
@@ -9037,7 +9071,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178" s="12" t="s">
         <v>59</v>
       </c>
@@ -9057,7 +9091,7 @@
       <c r="G178" s="14"/>
       <c r="H178" s="2"/>
     </row>
-    <row r="179" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179" s="7" t="s">
         <v>60</v>
       </c>
@@ -9071,7 +9105,7 @@
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
     </row>
-    <row r="180" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180" s="7" t="s">
         <v>61</v>
       </c>
@@ -9085,7 +9119,7 @@
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
     </row>
-    <row r="181" spans="1:8" s="2" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>62</v>
       </c>
@@ -9102,7 +9136,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="182" spans="1:8" s="2" customFormat="1" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="2" customFormat="1" ht="213.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
         <v>62</v>
       </c>
@@ -9119,7 +9153,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="183" spans="1:8" s="2" customFormat="1" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" s="2" customFormat="1" ht="270.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
         <v>62</v>
       </c>
@@ -9136,7 +9170,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="184" spans="1:8" s="2" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
         <v>62</v>
       </c>
@@ -9153,7 +9187,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="185" spans="1:8" s="2" customFormat="1" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="2" customFormat="1" ht="256.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
         <v>63</v>
       </c>
@@ -9170,7 +9204,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="186" spans="1:8" s="2" customFormat="1" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="2" customFormat="1" ht="270.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
         <v>64</v>
       </c>
@@ -9187,7 +9221,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="187" spans="1:8" s="2" customFormat="1" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="2" customFormat="1" ht="270.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
         <v>64</v>
       </c>
@@ -9204,7 +9238,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="188" spans="1:8" s="2" customFormat="1" ht="405" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="2" customFormat="1" ht="342" hidden="1" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
         <v>64</v>
       </c>
@@ -9221,7 +9255,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A189" s="7" t="s">
         <v>65</v>
       </c>
@@ -9235,7 +9269,7 @@
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
     </row>
-    <row r="190" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A190" s="7" t="s">
         <v>66</v>
       </c>
@@ -9249,7 +9283,7 @@
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
     </row>
-    <row r="191" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A191" s="7" t="s">
         <v>67</v>
       </c>
@@ -9261,7 +9295,7 @@
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
     </row>
-    <row r="192" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A192" s="12" t="s">
         <v>68</v>
       </c>
@@ -9279,7 +9313,7 @@
       <c r="G192" s="14"/>
       <c r="H192" s="2"/>
     </row>
-    <row r="193" spans="1:8" s="2" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="2" customFormat="1" ht="171" hidden="1" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
         <v>68</v>
       </c>
@@ -9294,7 +9328,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="194" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
         <v>68</v>
       </c>
@@ -9309,7 +9343,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="195" spans="1:8" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="2" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
         <v>68</v>
       </c>
@@ -9324,7 +9358,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="196" spans="1:8" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="2" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
         <v>68</v>
       </c>
@@ -9339,7 +9373,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A197" s="7" t="s">
         <v>69</v>
       </c>
@@ -9353,7 +9387,7 @@
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
     </row>
-    <row r="198" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A198" s="12" t="s">
         <v>70</v>
       </c>
@@ -9371,7 +9405,7 @@
       <c r="G198" s="14"/>
       <c r="H198" s="2"/>
     </row>
-    <row r="199" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A199" s="12" t="s">
         <v>70</v>
       </c>
@@ -9389,7 +9423,7 @@
       <c r="G199" s="14"/>
       <c r="H199" s="2"/>
     </row>
-    <row r="200" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A200" s="12" t="s">
         <v>70</v>
       </c>
@@ -9407,7 +9441,7 @@
       <c r="G200" s="14"/>
       <c r="H200" s="2"/>
     </row>
-    <row r="201" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A201" s="12" t="s">
         <v>70</v>
       </c>
@@ -9425,7 +9459,7 @@
       <c r="G201" s="14"/>
       <c r="H201" s="2"/>
     </row>
-    <row r="202" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202" s="12" t="s">
         <v>70</v>
       </c>
@@ -9443,7 +9477,7 @@
       <c r="G202" s="14"/>
       <c r="H202" s="2"/>
     </row>
-    <row r="203" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203" s="12" t="s">
         <v>70</v>
       </c>
@@ -9461,7 +9495,7 @@
       <c r="G203" s="14"/>
       <c r="H203" s="2"/>
     </row>
-    <row r="204" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A204" s="12" t="s">
         <v>70</v>
       </c>
@@ -9479,7 +9513,7 @@
       <c r="G204" s="14"/>
       <c r="H204" s="2"/>
     </row>
-    <row r="205" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A205" s="12" t="s">
         <v>70</v>
       </c>
@@ -9497,7 +9531,7 @@
       <c r="G205" s="14"/>
       <c r="H205" s="2"/>
     </row>
-    <row r="206" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>71</v>
       </c>
@@ -9514,7 +9548,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>71</v>
       </c>
@@ -9531,7 +9565,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="208" spans="1:8" s="2" customFormat="1" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="2" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>71</v>
       </c>
@@ -9548,7 +9582,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="209" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
         <v>71</v>
       </c>
@@ -9565,7 +9599,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A210" s="16" t="s">
         <v>71</v>
       </c>
@@ -9585,7 +9619,7 @@
       </c>
       <c r="H210" s="2"/>
     </row>
-    <row r="211" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A211" s="16" t="s">
         <v>71</v>
       </c>
@@ -9605,7 +9639,7 @@
       </c>
       <c r="H211" s="2"/>
     </row>
-    <row r="212" spans="1:8" s="2" customFormat="1" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="2" customFormat="1" ht="270.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
         <v>71</v>
       </c>
@@ -9622,7 +9656,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="213" spans="1:8" s="2" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="2" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
         <v>71</v>
       </c>
@@ -9639,7 +9673,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="214" spans="1:8" s="2" customFormat="1" ht="390" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
         <v>71</v>
       </c>
@@ -9656,7 +9690,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="215" spans="1:8" s="2" customFormat="1" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="2" customFormat="1" ht="270.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>72</v>
       </c>
@@ -9673,7 +9707,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="216" spans="1:8" s="2" customFormat="1" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="2" customFormat="1" ht="270.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
         <v>72</v>
       </c>
@@ -9690,7 +9724,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="217" spans="1:8" s="2" customFormat="1" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="2" customFormat="1" ht="270.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
         <v>72</v>
       </c>
@@ -9707,7 +9741,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A218" s="12" t="s">
         <v>73</v>
       </c>
@@ -9725,7 +9759,7 @@
       <c r="G218" s="14"/>
       <c r="H218" s="2"/>
     </row>
-    <row r="219" spans="1:8" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
         <v>74</v>
       </c>
@@ -9740,7 +9774,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="220" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
         <v>74</v>
       </c>
@@ -9755,7 +9789,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A221" s="12" t="s">
         <v>74</v>
       </c>
@@ -9773,7 +9807,7 @@
       <c r="G221" s="14"/>
       <c r="H221" s="2"/>
     </row>
-    <row r="222" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
         <v>74</v>
       </c>
@@ -9788,7 +9822,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="223" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
         <v>74</v>
       </c>
@@ -9803,7 +9837,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="224" spans="1:8" s="2" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" s="2" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
         <v>74</v>
       </c>
@@ -9818,7 +9852,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="225" spans="1:8" s="2" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" s="2" customFormat="1" ht="171" hidden="1" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
         <v>74</v>
       </c>
@@ -9833,7 +9867,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="226" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
         <v>75</v>
       </c>
@@ -9850,7 +9884,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="227" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
         <v>75</v>
       </c>
@@ -9867,7 +9901,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="228" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
         <v>75</v>
       </c>
@@ -9884,7 +9918,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="229" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
         <v>75</v>
       </c>
@@ -9901,7 +9935,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="230" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
         <v>76</v>
       </c>
@@ -9918,7 +9952,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="231" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
         <v>77</v>
       </c>
@@ -9933,7 +9967,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="232" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
         <v>77</v>
       </c>
@@ -9948,7 +9982,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A233" s="7" t="s">
         <v>78</v>
       </c>
@@ -9968,7 +10002,7 @@
       <c r="G233" s="2"/>
       <c r="H233" s="2"/>
     </row>
-    <row r="234" spans="1:8" s="2" customFormat="1" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" s="2" customFormat="1" ht="270.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
         <v>78</v>
       </c>
@@ -9985,7 +10019,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="235" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
         <v>79</v>
       </c>
@@ -10002,7 +10036,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="236" spans="1:8" s="2" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
         <v>79</v>
       </c>
@@ -10019,7 +10053,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="237" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
         <v>79</v>
       </c>
@@ -10036,7 +10070,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="238" spans="1:8" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A238" s="1" t="s">
         <v>79</v>
       </c>
@@ -10053,7 +10087,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="239" spans="1:8" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
         <v>79</v>
       </c>
@@ -10070,7 +10104,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="240" spans="1:8" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
         <v>79</v>
       </c>
@@ -10087,7 +10121,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="241" spans="1:8" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
         <v>79</v>
       </c>
@@ -10104,7 +10138,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="242" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
         <v>80</v>
       </c>
@@ -10121,7 +10155,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A243" s="12" t="s">
         <v>80</v>
       </c>
@@ -10141,7 +10175,7 @@
       <c r="G243" s="14"/>
       <c r="H243" s="2"/>
     </row>
-    <row r="244" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
         <v>80</v>
       </c>
@@ -10158,7 +10192,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="245" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
         <v>80</v>
       </c>
@@ -10175,7 +10209,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="246" spans="1:8" s="2" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" s="2" customFormat="1" ht="99.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A246" s="1" t="s">
         <v>80</v>
       </c>
@@ -10192,7 +10226,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="247" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
         <v>80</v>
       </c>
@@ -10209,7 +10243,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="248" spans="1:8" s="2" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A248" s="1" t="s">
         <v>80</v>
       </c>
@@ -10226,7 +10260,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A249" s="18" t="s">
         <v>80</v>
       </c>
@@ -10246,7 +10280,7 @@
       <c r="G249" s="19"/>
       <c r="H249" s="2"/>
     </row>
-    <row r="250" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
         <v>80</v>
       </c>
@@ -10263,7 +10297,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="251" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
         <v>81</v>
       </c>
@@ -10280,7 +10314,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="252" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A252" s="1" t="s">
         <v>81</v>
       </c>
@@ -10297,7 +10331,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="253" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
         <v>81</v>
       </c>
@@ -10314,7 +10348,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A254" s="20" t="s">
         <v>81</v>
       </c>
@@ -10336,7 +10370,7 @@
       </c>
       <c r="H254" s="2"/>
     </row>
-    <row r="255" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A255" s="20" t="s">
         <v>81</v>
       </c>
@@ -10358,7 +10392,7 @@
       </c>
       <c r="H255" s="2"/>
     </row>
-    <row r="256" spans="1:8" s="2" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" s="2" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
         <v>81</v>
       </c>
@@ -10375,7 +10409,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A257" s="7" t="s">
         <v>82</v>
       </c>
@@ -10387,7 +10421,7 @@
       <c r="G257" s="2"/>
       <c r="H257" s="2"/>
     </row>
-    <row r="258" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A258" s="7" t="s">
         <v>83</v>
       </c>
@@ -10399,7 +10433,7 @@
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
     </row>
-    <row r="259" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A259" s="7" t="s">
         <v>84</v>
       </c>
@@ -10417,7 +10451,7 @@
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
     </row>
-    <row r="260" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A260" s="1" t="s">
         <v>85</v>
       </c>
@@ -10432,7 +10466,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="261" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
         <v>85</v>
       </c>
@@ -10447,7 +10481,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="262" spans="1:8" s="2" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" s="2" customFormat="1" ht="171" hidden="1" x14ac:dyDescent="0.45">
       <c r="A262" s="1" t="s">
         <v>86</v>
       </c>
@@ -10464,7 +10498,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="263" spans="1:8" s="2" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A263" s="1" t="s">
         <v>86</v>
       </c>
@@ -10481,7 +10515,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A264" s="12" t="s">
         <v>86</v>
       </c>
@@ -10501,7 +10535,7 @@
       <c r="G264" s="14"/>
       <c r="H264" s="2"/>
     </row>
-    <row r="265" spans="1:8" s="2" customFormat="1" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" s="2" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A265" s="1" t="s">
         <v>86</v>
       </c>
@@ -10518,7 +10552,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="266" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A266" s="1" t="s">
         <v>86</v>
       </c>
@@ -10535,7 +10569,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="267" spans="1:8" s="2" customFormat="1" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" s="2" customFormat="1" ht="242.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A267" s="1" t="s">
         <v>86</v>
       </c>
@@ -10552,7 +10586,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A268" s="7" t="s">
         <v>86</v>
       </c>
@@ -10574,7 +10608,7 @@
       </c>
       <c r="H268" s="2"/>
     </row>
-    <row r="269" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A269" s="7" t="s">
         <v>86</v>
       </c>
@@ -10596,7 +10630,7 @@
       </c>
       <c r="H269" s="2"/>
     </row>
-    <row r="270" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A270" s="7" t="s">
         <v>86</v>
       </c>
@@ -10616,7 +10650,7 @@
       <c r="G270" s="2"/>
       <c r="H270" s="2"/>
     </row>
-    <row r="271" spans="1:8" s="2" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" s="2" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A271" s="1" t="s">
         <v>86</v>
       </c>
@@ -10633,7 +10667,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="272" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A272" s="1" t="s">
         <v>86</v>
       </c>
@@ -10650,7 +10684,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="273" spans="1:8" s="2" customFormat="1" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" s="2" customFormat="1" ht="242.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A273" s="1" t="s">
         <v>86</v>
       </c>
@@ -10667,7 +10701,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="274" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A274" s="1" t="s">
         <v>86</v>
       </c>
@@ -10684,7 +10718,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A275" s="7" t="s">
         <v>86</v>
       </c>
@@ -10702,7 +10736,7 @@
       <c r="G275" s="2"/>
       <c r="H275" s="2"/>
     </row>
-    <row r="276" spans="1:8" s="2" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" s="2" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A276" s="1" t="s">
         <v>86</v>
       </c>
@@ -10719,7 +10753,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="277" spans="1:8" s="2" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" s="2" customFormat="1" ht="171" hidden="1" x14ac:dyDescent="0.45">
       <c r="A277" s="1" t="s">
         <v>86</v>
       </c>
@@ -10736,7 +10770,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A278" s="7" t="s">
         <v>87</v>
       </c>
@@ -10754,7 +10788,7 @@
       <c r="G278" s="2"/>
       <c r="H278" s="2"/>
     </row>
-    <row r="279" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A279" s="7" t="s">
         <v>87</v>
       </c>
@@ -10772,7 +10806,7 @@
       <c r="G279" s="2"/>
       <c r="H279" s="2"/>
     </row>
-    <row r="280" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A280" s="1" t="s">
         <v>87</v>
       </c>
@@ -10789,7 +10823,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="281" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A281" s="1" t="s">
         <v>87</v>
       </c>
@@ -10806,7 +10840,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="282" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A282" s="1" t="s">
         <v>87</v>
       </c>
@@ -10823,7 +10857,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="283" spans="1:8" s="2" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" s="2" customFormat="1" ht="185.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A283" s="1" t="s">
         <v>87</v>
       </c>
@@ -10840,7 +10874,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A284" s="12" t="s">
         <v>87</v>
       </c>
@@ -10860,7 +10894,7 @@
       <c r="G284" s="14"/>
       <c r="H284" s="2"/>
     </row>
-    <row r="285" spans="1:8" s="2" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A285" s="1" t="s">
         <v>88</v>
       </c>
@@ -10877,7 +10911,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="286" spans="1:8" s="2" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A286" s="1" t="s">
         <v>88</v>
       </c>
@@ -10894,7 +10928,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A287" s="7" t="s">
         <v>89</v>
       </c>
@@ -10906,7 +10940,7 @@
       <c r="G287" s="2"/>
       <c r="H287" s="2"/>
     </row>
-    <row r="288" spans="1:8" s="2" customFormat="1" ht="345" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" s="2" customFormat="1" ht="270.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A288" s="1" t="s">
         <v>90</v>
       </c>
@@ -10923,7 +10957,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A289" s="7" t="s">
         <v>91</v>
       </c>
@@ -10937,7 +10971,7 @@
       <c r="G289" s="2"/>
       <c r="H289" s="2"/>
     </row>
-    <row r="290" spans="1:8" s="2" customFormat="1" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" s="2" customFormat="1" ht="213.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A290" s="1" t="s">
         <v>92</v>
       </c>
@@ -10954,7 +10988,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A291" s="7" t="s">
         <v>92</v>
       </c>
@@ -10974,7 +11008,7 @@
       <c r="G291" s="2"/>
       <c r="H291" s="2"/>
     </row>
-    <row r="292" spans="1:8" s="2" customFormat="1" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" s="2" customFormat="1" ht="213.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A292" s="1" t="s">
         <v>92</v>
       </c>
@@ -10991,7 +11025,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A293" s="22" t="s">
         <v>92</v>
       </c>
@@ -11013,7 +11047,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="294" spans="1:8" s="2" customFormat="1" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" s="2" customFormat="1" ht="213.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A294" s="1" t="s">
         <v>92</v>
       </c>
@@ -11030,7 +11064,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A295" s="22" t="s">
         <v>92</v>
       </c>
@@ -11050,7 +11084,7 @@
       <c r="G295" s="23"/>
       <c r="H295" s="2"/>
     </row>
-    <row r="296" spans="1:8" s="2" customFormat="1" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" s="2" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A296" s="1" t="s">
         <v>93</v>
       </c>
@@ -11067,7 +11101,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="297" spans="1:8" s="2" customFormat="1" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" s="2" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A297" s="1" t="s">
         <v>93</v>
       </c>
@@ -11084,7 +11118,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="298" spans="1:8" s="2" customFormat="1" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" s="2" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A298" s="1" t="s">
         <v>93</v>
       </c>
@@ -11101,7 +11135,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="299" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A299" s="1" t="s">
         <v>94</v>
       </c>
@@ -11118,7 +11152,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="300" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A300" s="1" t="s">
         <v>94</v>
       </c>
@@ -11135,7 +11169,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="301" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A301" s="1" t="s">
         <v>94</v>
       </c>
@@ -11152,7 +11186,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A302" s="7" t="s">
         <v>95</v>
       </c>
@@ -11172,7 +11206,7 @@
       <c r="G302" s="2"/>
       <c r="H302" s="2"/>
     </row>
-    <row r="303" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A303" s="16" t="s">
         <v>95</v>
       </c>
@@ -11194,7 +11228,7 @@
       </c>
       <c r="H303" s="2"/>
     </row>
-    <row r="304" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A304" s="7" t="s">
         <v>95</v>
       </c>
@@ -11214,7 +11248,7 @@
       <c r="G304" s="2"/>
       <c r="H304" s="2"/>
     </row>
-    <row r="305" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A305" s="7" t="s">
         <v>95</v>
       </c>
@@ -11234,7 +11268,7 @@
       <c r="G305" s="2"/>
       <c r="H305" s="2"/>
     </row>
-    <row r="306" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A306" s="7" t="s">
         <v>96</v>
       </c>
@@ -11250,7 +11284,7 @@
       <c r="G306" s="2"/>
       <c r="H306" s="2"/>
     </row>
-    <row r="307" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A307" s="7" t="s">
         <v>97</v>
       </c>
@@ -11264,7 +11298,7 @@
       <c r="G307" s="2"/>
       <c r="H307" s="2"/>
     </row>
-    <row r="308" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A308" s="7" t="s">
         <v>98</v>
       </c>
@@ -11284,7 +11318,7 @@
       <c r="G308" s="2"/>
       <c r="H308" s="2"/>
     </row>
-    <row r="309" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A309" s="7" t="s">
         <v>98</v>
       </c>
@@ -11302,7 +11336,7 @@
       <c r="G309" s="2"/>
       <c r="H309" s="2"/>
     </row>
-    <row r="310" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A310" s="7" t="s">
         <v>98</v>
       </c>
@@ -11322,7 +11356,7 @@
       <c r="G310" s="2"/>
       <c r="H310" s="2"/>
     </row>
-    <row r="311" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A311" s="7" t="s">
         <v>98</v>
       </c>
@@ -11342,7 +11376,7 @@
       <c r="G311" s="2"/>
       <c r="H311" s="2"/>
     </row>
-    <row r="312" spans="1:8" s="2" customFormat="1" ht="345" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A312" s="1" t="s">
         <v>98</v>
       </c>
@@ -11359,7 +11393,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="313" spans="1:8" s="2" customFormat="1" ht="345" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A313" s="1" t="s">
         <v>98</v>
       </c>
@@ -11376,7 +11410,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A314" s="7" t="s">
         <v>98</v>
       </c>
@@ -11398,7 +11432,7 @@
         <v>44021</v>
       </c>
     </row>
-    <row r="315" spans="1:8" s="2" customFormat="1" ht="345" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A315" s="1" t="s">
         <v>98</v>
       </c>
@@ -11415,7 +11449,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A316" s="7" t="s">
         <v>98</v>
       </c>
@@ -11437,7 +11471,7 @@
         <v>44026</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A317" s="7" t="s">
         <v>99</v>
       </c>
@@ -11455,7 +11489,7 @@
       <c r="G317" s="2"/>
       <c r="H317" s="2"/>
     </row>
-    <row r="318" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A318" s="7" t="s">
         <v>100</v>
       </c>
@@ -11473,9 +11507,11 @@
       </c>
       <c r="F318" s="2"/>
       <c r="G318" s="2"/>
-      <c r="H318" s="2"/>
-    </row>
-    <row r="319" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H318" s="24">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A319" s="7" t="s">
         <v>100</v>
       </c>
@@ -11485,15 +11521,19 @@
       <c r="C319" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="D319" s="7"/>
+      <c r="D319" s="7" t="s">
+        <v>1573</v>
+      </c>
       <c r="E319" s="7" t="s">
         <v>132</v>
       </c>
       <c r="F319" s="2"/>
       <c r="G319" s="2"/>
-      <c r="H319" s="2"/>
-    </row>
-    <row r="320" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H319" s="24">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A320" s="7" t="s">
         <v>101</v>
       </c>
@@ -11505,7 +11545,7 @@
       <c r="G320" s="2"/>
       <c r="H320" s="2"/>
     </row>
-    <row r="321" spans="1:8" s="2" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" s="2" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A321" s="1" t="s">
         <v>102</v>
       </c>
@@ -11522,7 +11562,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="322" spans="1:8" s="2" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" s="2" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A322" s="1" t="s">
         <v>102</v>
       </c>
@@ -11539,7 +11579,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A323" s="7" t="s">
         <v>103</v>
       </c>
@@ -11549,15 +11589,17 @@
       <c r="C323" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="D323" s="7"/>
+      <c r="D323" s="28" t="s">
+        <v>1575</v>
+      </c>
       <c r="E323" s="7" t="s">
         <v>727</v>
       </c>
       <c r="F323" s="2"/>
       <c r="G323" s="2"/>
-      <c r="H323" s="2"/>
-    </row>
-    <row r="324" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H323" s="24"/>
+    </row>
+    <row r="324" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A324" s="1" t="s">
         <v>103</v>
       </c>
@@ -11574,7 +11616,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A325" s="7" t="s">
         <v>103</v>
       </c>
@@ -11584,15 +11626,17 @@
       <c r="C325" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="D325" s="7"/>
+      <c r="D325" s="28" t="s">
+        <v>1574</v>
+      </c>
       <c r="E325" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="F325" s="2"/>
-      <c r="G325" s="2"/>
+      <c r="F325" s="29"/>
+      <c r="G325" s="29"/>
       <c r="H325" s="2"/>
     </row>
-    <row r="326" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A326" s="7" t="s">
         <v>104</v>
       </c>
@@ -11610,7 +11654,7 @@
       <c r="G326" s="2"/>
       <c r="H326" s="2"/>
     </row>
-    <row r="327" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A327" s="1" t="s">
         <v>105</v>
       </c>
@@ -11627,7 +11671,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="328" spans="1:8" s="2" customFormat="1" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" s="2" customFormat="1" ht="256.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A328" s="1" t="s">
         <v>105</v>
       </c>
@@ -11644,7 +11688,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A329" s="7" t="s">
         <v>106</v>
       </c>
@@ -11654,7 +11698,9 @@
       <c r="C329" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="D329" s="7"/>
+      <c r="D329" s="7" t="s">
+        <v>1576</v>
+      </c>
       <c r="E329" s="7" t="s">
         <v>546</v>
       </c>
@@ -11662,7 +11708,7 @@
       <c r="G329" s="2"/>
       <c r="H329" s="2"/>
     </row>
-    <row r="330" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A330" s="7" t="s">
         <v>106</v>
       </c>
@@ -11680,7 +11726,7 @@
       <c r="G330" s="2"/>
       <c r="H330" s="2"/>
     </row>
-    <row r="331" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A331" s="7" t="s">
         <v>106</v>
       </c>
@@ -11698,7 +11744,7 @@
       <c r="G331" s="2"/>
       <c r="H331" s="2"/>
     </row>
-    <row r="332" spans="1:8" s="2" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" s="2" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A332" s="1" t="s">
         <v>106</v>
       </c>
@@ -11715,7 +11761,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A333" s="7" t="s">
         <v>106</v>
       </c>
@@ -11733,7 +11779,7 @@
       <c r="G333" s="2"/>
       <c r="H333" s="2"/>
     </row>
-    <row r="334" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A334" s="7" t="s">
         <v>106</v>
       </c>
@@ -11751,7 +11797,7 @@
       <c r="G334" s="2"/>
       <c r="H334" s="2"/>
     </row>
-    <row r="335" spans="1:8" s="2" customFormat="1" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" s="2" customFormat="1" ht="213.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A335" s="1" t="s">
         <v>106</v>
       </c>
@@ -11768,7 +11814,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="336" spans="1:8" s="2" customFormat="1" ht="360" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" s="2" customFormat="1" ht="313.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A336" s="1" t="s">
         <v>106</v>
       </c>
@@ -11785,7 +11831,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="337" spans="1:8" s="2" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A337" s="1" t="s">
         <v>106</v>
       </c>
@@ -11802,7 +11848,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A338" s="7" t="s">
         <v>107</v>
       </c>
@@ -11816,7 +11862,7 @@
       <c r="G338" s="2"/>
       <c r="H338" s="2"/>
     </row>
-    <row r="339" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A339" s="1" t="s">
         <v>108</v>
       </c>
@@ -11833,7 +11879,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A340" s="7" t="s">
         <v>108</v>
       </c>
@@ -11851,7 +11897,7 @@
       <c r="G340" s="2"/>
       <c r="H340" s="2"/>
     </row>
-    <row r="341" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A341" s="1" t="s">
         <v>108</v>
       </c>
@@ -11868,7 +11914,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="342" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A342" s="1" t="s">
         <v>108</v>
       </c>
@@ -11885,7 +11931,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="343" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A343" s="1" t="s">
         <v>108</v>
       </c>
@@ -11902,7 +11948,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="344" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A344" s="1" t="s">
         <v>108</v>
       </c>
@@ -11919,7 +11965,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="345" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A345" s="1" t="s">
         <v>108</v>
       </c>
@@ -11936,7 +11982,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="346" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A346" s="1" t="s">
         <v>108</v>
       </c>
@@ -11953,7 +11999,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="347" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A347" s="1" t="s">
         <v>108</v>
       </c>
@@ -11970,7 +12016,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="348" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A348" s="1" t="s">
         <v>108</v>
       </c>
@@ -11987,7 +12033,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="349" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A349" s="1" t="s">
         <v>108</v>
       </c>
@@ -12004,7 +12050,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="350" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A350" s="1" t="s">
         <v>108</v>
       </c>
@@ -12021,7 +12067,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="351" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A351" s="1" t="s">
         <v>108</v>
       </c>
@@ -12038,7 +12084,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="352" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A352" s="1" t="s">
         <v>108</v>
       </c>
@@ -12055,7 +12101,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A353" s="7" t="s">
         <v>108</v>
       </c>
@@ -12073,7 +12119,7 @@
       <c r="G353" s="2"/>
       <c r="H353" s="2"/>
     </row>
-    <row r="354" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A354" s="1" t="s">
         <v>108</v>
       </c>
@@ -12090,7 +12136,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A355" s="7" t="s">
         <v>108</v>
       </c>
@@ -12108,7 +12154,7 @@
       <c r="G355" s="2"/>
       <c r="H355" s="2"/>
     </row>
-    <row r="356" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A356" s="1" t="s">
         <v>108</v>
       </c>
@@ -12125,7 +12171,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A357" s="7" t="s">
         <v>109</v>
       </c>
@@ -12143,7 +12189,7 @@
       <c r="G357" s="2"/>
       <c r="H357" s="2"/>
     </row>
-    <row r="358" spans="1:8" s="2" customFormat="1" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" s="2" customFormat="1" ht="185.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A358" s="1" t="s">
         <v>109</v>
       </c>
@@ -12160,7 +12206,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="359" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A359" s="1" t="s">
         <v>110</v>
       </c>
@@ -12177,7 +12223,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="360" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A360" s="1" t="s">
         <v>110</v>
       </c>
@@ -12194,7 +12240,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="361" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A361" s="1" t="s">
         <v>110</v>
       </c>
@@ -12211,7 +12257,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A362" s="7" t="s">
         <v>111</v>
       </c>
@@ -12225,7 +12271,7 @@
       <c r="G362" s="2"/>
       <c r="H362" s="2"/>
     </row>
-    <row r="363" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A363" s="1" t="s">
         <v>112</v>
       </c>
@@ -12242,7 +12288,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="364" spans="1:8" s="2" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A364" s="1" t="s">
         <v>112</v>
       </c>
@@ -12259,7 +12305,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="365" spans="1:8" s="2" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A365" s="1" t="s">
         <v>112</v>
       </c>
@@ -12276,7 +12322,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A366" s="7" t="s">
         <v>112</v>
       </c>
@@ -12294,7 +12340,7 @@
       <c r="G366" s="2"/>
       <c r="H366" s="2"/>
     </row>
-    <row r="367" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A367" s="7" t="s">
         <v>112</v>
       </c>
@@ -12312,7 +12358,7 @@
       <c r="G367" s="2"/>
       <c r="H367" s="2"/>
     </row>
-    <row r="368" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" s="2" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A368" s="1" t="s">
         <v>112</v>
       </c>
@@ -12329,7 +12375,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A369" s="7" t="s">
         <v>112</v>
       </c>
@@ -12347,7 +12393,7 @@
       <c r="G369" s="2"/>
       <c r="H369" s="2"/>
     </row>
-    <row r="370" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A370" s="7" t="s">
         <v>112</v>
       </c>
@@ -12365,7 +12411,7 @@
       <c r="G370" s="2"/>
       <c r="H370" s="2"/>
     </row>
-    <row r="371" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A371" s="1" t="s">
         <v>113</v>
       </c>
@@ -12382,7 +12428,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="372" spans="1:8" s="2" customFormat="1" ht="390" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A372" s="1" t="s">
         <v>113</v>
       </c>
@@ -12399,7 +12445,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="373" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A373" s="1" t="s">
         <v>113</v>
       </c>
@@ -12416,7 +12462,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="374" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A374" s="1" t="s">
         <v>113</v>
       </c>
@@ -12433,7 +12479,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A375" s="7" t="s">
         <v>113</v>
       </c>
@@ -12451,7 +12497,7 @@
       <c r="G375" s="2"/>
       <c r="H375" s="2"/>
     </row>
-    <row r="376" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A376" s="1" t="s">
         <v>113</v>
       </c>
@@ -12468,7 +12514,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="377" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A377" s="1" t="s">
         <v>113</v>
       </c>
@@ -12485,7 +12531,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="378" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A378" s="1" t="s">
         <v>113</v>
       </c>
@@ -12502,7 +12548,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A379" s="7" t="s">
         <v>113</v>
       </c>
@@ -12520,7 +12566,7 @@
       <c r="G379" s="2"/>
       <c r="H379" s="2"/>
     </row>
-    <row r="380" spans="1:8" s="2" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" s="2" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A380" s="1" t="s">
         <v>113</v>
       </c>
@@ -12537,7 +12583,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="381" spans="1:8" s="2" customFormat="1" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" s="2" customFormat="1" ht="213.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A381" s="1" t="s">
         <v>113</v>
       </c>
@@ -12554,7 +12600,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="382" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A382" s="1" t="s">
         <v>113</v>
       </c>
@@ -12571,7 +12617,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="383" spans="1:8" s="2" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" s="2" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A383" s="1" t="s">
         <v>113</v>
       </c>
@@ -12588,7 +12634,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="384" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A384" s="1" t="s">
         <v>113</v>
       </c>
@@ -12605,7 +12651,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="385" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A385" s="1" t="s">
         <v>113</v>
       </c>
@@ -12622,7 +12668,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="386" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A386" s="1" t="s">
         <v>114</v>
       </c>
@@ -12639,7 +12685,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="387" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A387" s="1" t="s">
         <v>114</v>
       </c>
@@ -12656,7 +12702,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A388" s="7" t="s">
         <v>115</v>
       </c>
@@ -12672,7 +12718,7 @@
       <c r="G388" s="2"/>
       <c r="H388" s="2"/>
     </row>
-    <row r="389" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A389" s="1" t="s">
         <v>115</v>
       </c>
@@ -12687,7 +12733,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A390" s="7" t="s">
         <v>116</v>
       </c>
@@ -12699,7 +12745,7 @@
       <c r="G390" s="2"/>
       <c r="H390" s="2"/>
     </row>
-    <row r="391" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" s="2" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A391" s="1" t="s">
         <v>117</v>
       </c>
@@ -12716,7 +12762,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="392" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" s="2" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A392" s="1" t="s">
         <v>117</v>
       </c>
@@ -12733,7 +12779,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="393" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A393" s="1" t="s">
         <v>118</v>
       </c>
@@ -12750,7 +12796,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="394" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A394" s="1" t="s">
         <v>118</v>
       </c>
@@ -12767,7 +12813,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="395" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A395" s="1" t="s">
         <v>118</v>
       </c>
@@ -12784,7 +12830,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A396" s="7" t="s">
         <v>119</v>
       </c>
@@ -12798,7 +12844,7 @@
       <c r="G396" s="2"/>
       <c r="H396" s="2"/>
     </row>
-    <row r="397" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A397" s="7" t="s">
         <v>120</v>
       </c>
@@ -12812,7 +12858,7 @@
       <c r="G397" s="2"/>
       <c r="H397" s="2"/>
     </row>
-    <row r="398" spans="1:8" s="2" customFormat="1" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" s="2" customFormat="1" ht="228" hidden="1" x14ac:dyDescent="0.45">
       <c r="A398" s="1" t="s">
         <v>121</v>
       </c>
@@ -12827,7 +12873,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="399" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A399" s="1" t="s">
         <v>121</v>
       </c>
@@ -12842,7 +12888,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A400" s="7" t="s">
         <v>121</v>
       </c>
@@ -12858,7 +12904,7 @@
       <c r="G400" s="2"/>
       <c r="H400" s="2"/>
     </row>
-    <row r="401" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A401" s="1" t="s">
         <v>122</v>
       </c>
@@ -12875,7 +12921,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A402" s="7" t="s">
         <v>122</v>
       </c>
@@ -12893,7 +12939,7 @@
       <c r="G402" s="2"/>
       <c r="H402" s="2"/>
     </row>
-    <row r="403" spans="1:8" s="2" customFormat="1" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" s="2" customFormat="1" ht="285" hidden="1" x14ac:dyDescent="0.45">
       <c r="A403" s="1" t="s">
         <v>122</v>
       </c>
@@ -12910,7 +12956,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="404" spans="1:8" s="2" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" s="2" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A404" s="1" t="s">
         <v>123</v>
       </c>
@@ -12927,7 +12973,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A405" s="7" t="s">
         <v>123</v>
       </c>
@@ -12945,7 +12991,7 @@
       <c r="G405" s="2"/>
       <c r="H405" s="2"/>
     </row>
-    <row r="406" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A406" s="7" t="s">
         <v>124</v>
       </c>
@@ -12961,7 +13007,7 @@
       <c r="G406" s="2"/>
       <c r="H406" s="2"/>
     </row>
-    <row r="407" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A407" s="7" t="s">
         <v>124</v>
       </c>
@@ -12977,7 +13023,7 @@
       <c r="G407" s="2"/>
       <c r="H407" s="2"/>
     </row>
-    <row r="408" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A408" s="7" t="s">
         <v>124</v>
       </c>
@@ -12993,7 +13039,7 @@
       <c r="G408" s="2"/>
       <c r="H408" s="2"/>
     </row>
-    <row r="409" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A409" s="7" t="s">
         <v>124</v>
       </c>
@@ -13009,7 +13055,7 @@
       <c r="G409" s="2"/>
       <c r="H409" s="2"/>
     </row>
-    <row r="410" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A410" s="7" t="s">
         <v>125</v>
       </c>
@@ -13023,7 +13069,7 @@
       <c r="G410" s="2"/>
       <c r="H410" s="2"/>
     </row>
-    <row r="411" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A411" s="7" t="s">
         <v>126</v>
       </c>
@@ -13039,7 +13085,7 @@
       <c r="G411" s="2"/>
       <c r="H411" s="2"/>
     </row>
-    <row r="412" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A412" s="7" t="s">
         <v>126</v>
       </c>
@@ -13055,7 +13101,7 @@
       <c r="G412" s="2"/>
       <c r="H412" s="2"/>
     </row>
-    <row r="413" spans="1:8" s="2" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" s="2" customFormat="1" ht="171" hidden="1" x14ac:dyDescent="0.45">
       <c r="A413" s="1" t="s">
         <v>127</v>
       </c>
@@ -13072,7 +13118,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A414" s="7" t="s">
         <v>133</v>
       </c>
@@ -13086,7 +13132,7 @@
       <c r="G414" s="2"/>
       <c r="H414" s="2"/>
     </row>
-    <row r="415" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A415" s="7" t="s">
         <v>134</v>
       </c>
@@ -13100,7 +13146,7 @@
       <c r="G415" s="2"/>
       <c r="H415" s="2"/>
     </row>
-    <row r="416" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A416" s="7" t="s">
         <v>135</v>
       </c>
@@ -13114,7 +13160,7 @@
       <c r="G416" s="2"/>
       <c r="H416" s="2"/>
     </row>
-    <row r="417" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A417" s="7" t="s">
         <v>136</v>
       </c>
@@ -13128,7 +13174,7 @@
       <c r="G417" s="2"/>
       <c r="H417" s="2"/>
     </row>
-    <row r="418" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A418" s="7" t="s">
         <v>137</v>
       </c>
@@ -13142,7 +13188,7 @@
       <c r="G418" s="2"/>
       <c r="H418" s="2"/>
     </row>
-    <row r="419" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A419" s="7" t="s">
         <v>138</v>
       </c>
@@ -13156,7 +13202,7 @@
       <c r="G419" s="2"/>
       <c r="H419" s="2"/>
     </row>
-    <row r="420" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A420" s="7" t="s">
         <v>131</v>
       </c>
@@ -13168,7 +13214,7 @@
       <c r="G420" s="2"/>
       <c r="H420" s="2"/>
     </row>
-    <row r="421" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A421" s="7" t="s">
         <v>132</v>
       </c>
@@ -13184,7 +13230,7 @@
       <c r="G421" s="2"/>
       <c r="H421" s="2"/>
     </row>
-    <row r="422" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A422" s="7" t="s">
         <v>132</v>
       </c>
@@ -13196,7 +13242,7 @@
       <c r="G422" s="2"/>
       <c r="H422" s="2"/>
     </row>
-    <row r="423" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A423" s="7" t="s">
         <v>139</v>
       </c>
@@ -13210,7 +13256,7 @@
       <c r="G423" s="2"/>
       <c r="H423" s="2"/>
     </row>
-    <row r="424" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A424" s="7" t="s">
         <v>140</v>
       </c>
@@ -13224,7 +13270,7 @@
       <c r="G424" s="2"/>
       <c r="H424" s="2"/>
     </row>
-    <row r="425" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A425" s="7" t="s">
         <v>141</v>
       </c>
@@ -13238,7 +13284,7 @@
       <c r="G425" s="2"/>
       <c r="H425" s="2"/>
     </row>
-    <row r="426" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A426" s="7" t="s">
         <v>142</v>
       </c>
@@ -13252,7 +13298,7 @@
       <c r="G426" s="2"/>
       <c r="H426" s="2"/>
     </row>
-    <row r="427" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A427" s="7" t="s">
         <v>143</v>
       </c>
@@ -13283,16 +13329,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="40.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.73046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>744</v>
       </c>
@@ -13306,7 +13352,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>748</v>
       </c>
@@ -13320,7 +13366,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>748</v>
       </c>
@@ -13334,7 +13380,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>748</v>
       </c>
@@ -13348,7 +13394,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>756</v>
       </c>
@@ -13360,7 +13406,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>756</v>
       </c>
@@ -13372,7 +13418,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>756</v>
       </c>
@@ -13384,7 +13430,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>761</v>
       </c>
@@ -13398,7 +13444,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>761</v>
       </c>
@@ -13412,7 +13458,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>761</v>
       </c>
@@ -13426,7 +13472,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>769</v>
       </c>
@@ -13440,7 +13486,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>769</v>
       </c>
@@ -13454,7 +13500,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>769</v>
       </c>
@@ -13468,7 +13514,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>769</v>
       </c>
@@ -13482,7 +13528,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>769</v>
       </c>
@@ -13496,7 +13542,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>769</v>
       </c>
@@ -13510,7 +13556,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>769</v>
       </c>
@@ -13524,7 +13570,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>769</v>
       </c>
@@ -13538,7 +13584,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>769</v>
       </c>
@@ -13552,7 +13598,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>769</v>
       </c>
@@ -13566,7 +13612,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>769</v>
       </c>
@@ -13580,7 +13626,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>769</v>
       </c>
@@ -13594,7 +13640,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>769</v>
       </c>
@@ -13608,7 +13654,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>769</v>
       </c>
@@ -13622,7 +13668,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>769</v>
       </c>
@@ -13636,7 +13682,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>769</v>
       </c>
@@ -13650,7 +13696,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>769</v>
       </c>
@@ -13664,7 +13710,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>769</v>
       </c>
@@ -13678,7 +13724,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>769</v>
       </c>
@@ -13692,7 +13738,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>809</v>
       </c>
@@ -13706,7 +13752,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>809</v>
       </c>
@@ -13720,7 +13766,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>809</v>
       </c>
@@ -13734,7 +13780,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>809</v>
       </c>
@@ -13748,7 +13794,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>809</v>
       </c>
@@ -13762,7 +13808,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>821</v>
       </c>
@@ -13776,7 +13822,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>821</v>
       </c>
@@ -13790,7 +13836,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>821</v>
       </c>
@@ -13804,7 +13850,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>829</v>
       </c>
@@ -13818,7 +13864,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>829</v>
       </c>
@@ -13832,7 +13878,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>829</v>
       </c>
@@ -13846,7 +13892,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>829</v>
       </c>
@@ -13860,7 +13906,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>829</v>
       </c>
@@ -13874,7 +13920,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>829</v>
       </c>
@@ -13888,7 +13934,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>829</v>
       </c>
@@ -13902,7 +13948,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>829</v>
       </c>
@@ -13916,7 +13962,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>829</v>
       </c>
@@ -13930,7 +13976,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>829</v>
       </c>
@@ -13944,7 +13990,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>829</v>
       </c>
@@ -13958,7 +14004,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>829</v>
       </c>
@@ -13972,7 +14018,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>829</v>
       </c>
@@ -13986,7 +14032,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>829</v>
       </c>
@@ -14000,7 +14046,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>829</v>
       </c>
@@ -14014,7 +14060,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>829</v>
       </c>
@@ -14028,7 +14074,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>829</v>
       </c>
@@ -14042,7 +14088,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>829</v>
       </c>
@@ -14056,7 +14102,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>829</v>
       </c>
@@ -14070,7 +14116,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>829</v>
       </c>
@@ -14084,7 +14130,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>829</v>
       </c>
@@ -14098,7 +14144,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>829</v>
       </c>
@@ -14112,7 +14158,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>829</v>
       </c>
@@ -14126,7 +14172,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>829</v>
       </c>
@@ -14140,7 +14186,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>829</v>
       </c>
@@ -14154,7 +14200,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>829</v>
       </c>
@@ -14168,7 +14214,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>829</v>
       </c>
@@ -14182,7 +14228,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>829</v>
       </c>
@@ -14196,7 +14242,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>829</v>
       </c>
@@ -14210,7 +14256,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>829</v>
       </c>
@@ -14224,7 +14270,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>829</v>
       </c>
@@ -14238,7 +14284,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>829</v>
       </c>
@@ -14252,7 +14298,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>829</v>
       </c>
@@ -14266,7 +14312,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>829</v>
       </c>
@@ -14280,7 +14326,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>829</v>
       </c>
@@ -14294,7 +14340,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>829</v>
       </c>
@@ -14308,7 +14354,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>829</v>
       </c>
@@ -14322,7 +14368,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>829</v>
       </c>
@@ -14336,7 +14382,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>829</v>
       </c>
@@ -14350,7 +14396,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>829</v>
       </c>
@@ -14364,7 +14410,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>829</v>
       </c>
@@ -14378,7 +14424,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>829</v>
       </c>
@@ -14392,7 +14438,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>829</v>
       </c>
@@ -14406,7 +14452,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>829</v>
       </c>
@@ -14420,7 +14466,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>829</v>
       </c>
@@ -14434,7 +14480,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>829</v>
       </c>
@@ -14448,7 +14494,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>829</v>
       </c>
@@ -14462,7 +14508,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>829</v>
       </c>
@@ -14476,7 +14522,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>829</v>
       </c>
@@ -14490,7 +14536,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>829</v>
       </c>
@@ -14504,7 +14550,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>829</v>
       </c>
@@ -14518,7 +14564,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>829</v>
       </c>
@@ -14532,7 +14578,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>829</v>
       </c>
@@ -14546,7 +14592,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>829</v>
       </c>
@@ -14560,7 +14606,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>829</v>
       </c>
@@ -14574,7 +14620,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>941</v>
       </c>
@@ -14584,7 +14630,7 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>943</v>
       </c>
@@ -14598,7 +14644,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>943</v>
       </c>
@@ -14612,7 +14658,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>943</v>
       </c>
@@ -14626,7 +14672,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>943</v>
       </c>
@@ -14640,7 +14686,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>943</v>
       </c>
@@ -14654,7 +14700,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>943</v>
       </c>
@@ -14668,7 +14714,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>943</v>
       </c>
@@ -14682,7 +14728,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>943</v>
       </c>
@@ -14696,7 +14742,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>943</v>
       </c>
@@ -14710,7 +14756,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>943</v>
       </c>
@@ -14724,7 +14770,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>943</v>
       </c>
@@ -14738,7 +14784,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>943</v>
       </c>
@@ -14752,7 +14798,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>943</v>
       </c>
@@ -14766,7 +14812,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>943</v>
       </c>
@@ -14780,7 +14826,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>943</v>
       </c>
@@ -14794,7 +14840,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>943</v>
       </c>
@@ -14808,7 +14854,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>943</v>
       </c>
@@ -14822,7 +14868,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>943</v>
       </c>
@@ -14836,7 +14882,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
         <v>943</v>
       </c>
@@ -14850,7 +14896,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>943</v>
       </c>
@@ -14864,7 +14910,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
         <v>985</v>
       </c>
@@ -14878,7 +14924,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
         <v>985</v>
       </c>
@@ -14892,7 +14938,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>985</v>
       </c>
@@ -14906,7 +14952,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>993</v>
       </c>
@@ -14920,7 +14966,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>993</v>
       </c>
@@ -14934,7 +14980,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>993</v>
       </c>
@@ -14948,7 +14994,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
         <v>993</v>
       </c>
@@ -14962,7 +15008,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>993</v>
       </c>
@@ -14976,7 +15022,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="285" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>1005</v>
       </c>
@@ -14986,7 +15032,7 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>1007</v>
       </c>
@@ -14994,7 +15040,7 @@
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
         <v>1008</v>
       </c>
@@ -15004,7 +15050,7 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15018,7 +15064,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15032,7 +15078,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15046,7 +15092,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15060,7 +15106,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15074,7 +15120,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15088,7 +15134,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15102,7 +15148,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15116,7 +15162,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15130,7 +15176,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15144,7 +15190,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15158,7 +15204,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15172,7 +15218,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15186,7 +15232,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15200,7 +15246,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15214,7 +15260,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15228,7 +15274,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15242,7 +15288,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15256,7 +15302,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15270,7 +15316,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15284,7 +15330,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15298,7 +15344,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15312,7 +15358,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15326,7 +15372,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
         <v>1058</v>
       </c>
@@ -15340,7 +15386,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
         <v>1058</v>
       </c>
@@ -15354,7 +15400,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
         <v>1058</v>
       </c>
@@ -15368,7 +15414,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
         <v>1058</v>
       </c>
@@ -15382,7 +15428,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
         <v>1058</v>
       </c>
@@ -15396,7 +15442,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
         <v>1058</v>
       </c>
@@ -15410,7 +15456,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>1072</v>
       </c>
@@ -15420,7 +15466,7 @@
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15434,7 +15480,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15448,7 +15494,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15462,7 +15508,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15476,7 +15522,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15490,7 +15536,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15504,7 +15550,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>1088</v>
       </c>
@@ -15518,7 +15564,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>1088</v>
       </c>
@@ -15532,7 +15578,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>1088</v>
       </c>
@@ -15546,7 +15592,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>1088</v>
       </c>
@@ -15560,7 +15606,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>1088</v>
       </c>
@@ -15574,7 +15620,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>1088</v>
       </c>
@@ -15588,7 +15634,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>1088</v>
       </c>
@@ -15602,7 +15648,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>1088</v>
       </c>
@@ -15616,7 +15662,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>1088</v>
       </c>
@@ -15630,7 +15676,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>1088</v>
       </c>
@@ -15644,7 +15690,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
         <v>1108</v>
       </c>
@@ -15658,7 +15704,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>1108</v>
       </c>
@@ -15672,7 +15718,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>1108</v>
       </c>
@@ -15686,7 +15732,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>1108</v>
       </c>
@@ -15700,7 +15746,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
         <v>1118</v>
       </c>
@@ -15714,7 +15760,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
         <v>1118</v>
       </c>
@@ -15728,7 +15774,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
         <v>1124</v>
       </c>
@@ -15742,7 +15788,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
         <v>1124</v>
       </c>
@@ -15756,7 +15802,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
         <v>1130</v>
       </c>
@@ -15770,7 +15816,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
         <v>1130</v>
       </c>
@@ -15784,7 +15830,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>1130</v>
       </c>
@@ -15798,7 +15844,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
         <v>1130</v>
       </c>
@@ -15812,7 +15858,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
         <v>1130</v>
       </c>
@@ -15826,7 +15872,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
         <v>1130</v>
       </c>
@@ -15840,7 +15886,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
         <v>1130</v>
       </c>
@@ -15854,7 +15900,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
         <v>1146</v>
       </c>
@@ -15868,7 +15914,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
         <v>1146</v>
       </c>
@@ -15882,7 +15928,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
         <v>1146</v>
       </c>
@@ -15896,7 +15942,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
         <v>1154</v>
       </c>
@@ -15910,7 +15956,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
         <v>1154</v>
       </c>
@@ -15924,7 +15970,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
         <v>1154</v>
       </c>
@@ -15938,7 +15984,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
         <v>1162</v>
       </c>
@@ -15952,7 +15998,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
         <v>1162</v>
       </c>
@@ -15966,7 +16012,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
         <v>1162</v>
       </c>
@@ -15980,7 +16026,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
         <v>1162</v>
       </c>
@@ -15994,7 +16040,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
         <v>1162</v>
       </c>
@@ -16008,7 +16054,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
         <v>1162</v>
       </c>
@@ -16022,7 +16068,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
         <v>1162</v>
       </c>
@@ -16036,7 +16082,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
         <v>1162</v>
       </c>
@@ -16050,7 +16096,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
         <v>1180</v>
       </c>
@@ -16058,7 +16104,7 @@
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
         <v>1181</v>
       </c>
@@ -16072,7 +16118,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
         <v>1181</v>
       </c>
@@ -16086,7 +16132,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
         <v>1187</v>
       </c>
@@ -16100,7 +16146,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
         <v>1187</v>
       </c>
@@ -16114,7 +16160,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
         <v>1187</v>
       </c>
@@ -16128,7 +16174,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>1187</v>
       </c>
@@ -16142,7 +16188,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>1195</v>
       </c>
@@ -16152,7 +16198,7 @@
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
     </row>
-    <row r="208" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>1197</v>
       </c>
@@ -16166,7 +16212,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
         <v>1197</v>
       </c>
@@ -16180,7 +16226,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
         <v>1197</v>
       </c>
@@ -16194,7 +16240,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
         <v>1197</v>
       </c>
@@ -16208,7 +16254,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
         <v>1205</v>
       </c>
@@ -16222,7 +16268,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
         <v>1205</v>
       </c>
@@ -16236,7 +16282,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
         <v>1205</v>
       </c>
@@ -16250,7 +16296,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>1205</v>
       </c>
@@ -16264,7 +16310,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
         <v>1205</v>
       </c>
@@ -16278,7 +16324,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
         <v>1205</v>
       </c>
@@ -16292,7 +16338,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
         <v>1217</v>
       </c>
@@ -16304,7 +16350,7 @@
       </c>
       <c r="D218" s="1"/>
     </row>
-    <row r="219" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16318,7 +16364,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16332,7 +16378,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16346,7 +16392,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16360,7 +16406,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16374,7 +16420,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16388,7 +16434,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16402,7 +16448,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16416,7 +16462,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16430,7 +16476,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16444,7 +16490,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16458,7 +16504,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16472,7 +16518,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16486,7 +16532,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16500,7 +16546,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16514,7 +16560,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16528,7 +16574,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16542,7 +16588,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16556,7 +16602,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16570,7 +16616,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A238" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16584,7 +16630,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16598,7 +16644,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16612,7 +16658,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16626,7 +16672,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16640,7 +16686,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A243" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16654,7 +16700,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16668,7 +16714,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16682,7 +16728,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A246" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16696,7 +16742,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16710,7 +16756,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A248" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16724,7 +16770,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16738,7 +16784,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16752,7 +16798,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16766,7 +16812,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A252" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16780,7 +16826,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16794,7 +16840,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A254" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16808,7 +16854,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
         <v>1294</v>
       </c>
@@ -16822,7 +16868,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
         <v>1294</v>
       </c>
@@ -16836,7 +16882,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
         <v>1294</v>
       </c>
@@ -16850,7 +16896,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A258" s="1" t="s">
         <v>1302</v>
       </c>
@@ -16864,7 +16910,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
         <v>1302</v>
       </c>
@@ -16878,7 +16924,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A260" s="1" t="s">
         <v>1302</v>
       </c>
@@ -16892,7 +16938,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
         <v>1310</v>
       </c>
@@ -16906,7 +16952,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" s="1" t="s">
         <v>1310</v>
       </c>
@@ -16920,7 +16966,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" s="1" t="s">
         <v>1310</v>
       </c>
@@ -16934,7 +16980,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A264" s="1" t="s">
         <v>1318</v>
       </c>
@@ -16948,7 +16994,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A265" s="1" t="s">
         <v>1318</v>
       </c>
@@ -16962,7 +17008,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A266" s="1" t="s">
         <v>1318</v>
       </c>
@@ -16976,7 +17022,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A267" s="1" t="s">
         <v>1318</v>
       </c>
@@ -16990,7 +17036,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A268" s="1" t="s">
         <v>1318</v>
       </c>
@@ -17004,7 +17050,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A269" s="1" t="s">
         <v>1318</v>
       </c>
@@ -17016,7 +17062,7 @@
       </c>
       <c r="D269" s="1"/>
     </row>
-    <row r="270" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A270" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17030,7 +17076,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A271" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17044,7 +17090,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A272" s="1" t="s">
         <v>1337</v>
       </c>
@@ -17058,7 +17104,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A273" s="1" t="s">
         <v>1337</v>
       </c>
@@ -17072,7 +17118,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A274" s="1" t="s">
         <v>1337</v>
       </c>
@@ -17086,7 +17132,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A275" s="1" t="s">
         <v>1337</v>
       </c>
@@ -17100,7 +17146,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A276" s="1" t="s">
         <v>1337</v>
       </c>
@@ -17114,7 +17160,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" s="1" t="s">
         <v>1349</v>
       </c>
@@ -17124,7 +17170,7 @@
       </c>
       <c r="D277" s="1"/>
     </row>
-    <row r="278" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" s="1" t="s">
         <v>1349</v>
       </c>
@@ -17134,7 +17180,7 @@
       </c>
       <c r="D278" s="1"/>
     </row>
-    <row r="279" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" s="1" t="s">
         <v>1349</v>
       </c>
@@ -17144,7 +17190,7 @@
       </c>
       <c r="D279" s="1"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" s="1" t="s">
         <v>1353</v>
       </c>
@@ -17156,7 +17202,7 @@
       </c>
       <c r="D280" s="1"/>
     </row>
-    <row r="281" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="1" t="s">
         <v>1353</v>
       </c>
@@ -17168,7 +17214,7 @@
       </c>
       <c r="D281" s="1"/>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" s="1" t="s">
         <v>1353</v>
       </c>
@@ -17180,7 +17226,7 @@
       </c>
       <c r="D282" s="1"/>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" s="1" t="s">
         <v>1353</v>
       </c>
@@ -17192,7 +17238,7 @@
       </c>
       <c r="D283" s="1"/>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" s="1" t="s">
         <v>1353</v>
       </c>
@@ -17204,7 +17250,7 @@
       </c>
       <c r="D284" s="1"/>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" s="1" t="s">
         <v>1353</v>
       </c>
@@ -17216,7 +17262,7 @@
       </c>
       <c r="D285" s="1"/>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A286" s="1" t="s">
         <v>1361</v>
       </c>
@@ -17224,7 +17270,7 @@
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287" s="1" t="s">
         <v>1362</v>
       </c>
@@ -17234,7 +17280,7 @@
       </c>
       <c r="D287" s="1"/>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" s="1" t="s">
         <v>1362</v>
       </c>
@@ -17244,7 +17290,7 @@
       </c>
       <c r="D288" s="1"/>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" s="1" t="s">
         <v>1365</v>
       </c>
@@ -17254,7 +17300,7 @@
       </c>
       <c r="D289" s="1"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" s="1" t="s">
         <v>1365</v>
       </c>
@@ -17264,7 +17310,7 @@
       </c>
       <c r="D290" s="1"/>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" s="1" t="s">
         <v>1368</v>
       </c>
@@ -17274,7 +17320,7 @@
       </c>
       <c r="D291" s="1"/>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" s="1" t="s">
         <v>1368</v>
       </c>
@@ -17284,7 +17330,7 @@
       </c>
       <c r="D292" s="1"/>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" s="1" t="s">
         <v>1371</v>
       </c>
@@ -17294,7 +17340,7 @@
       </c>
       <c r="D293" s="1"/>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" s="1" t="s">
         <v>1371</v>
       </c>
@@ -17304,7 +17350,7 @@
       </c>
       <c r="D294" s="1"/>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" s="1" t="s">
         <v>1371</v>
       </c>
@@ -17314,7 +17360,7 @@
       </c>
       <c r="D295" s="1"/>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" s="1" t="s">
         <v>1371</v>
       </c>
@@ -17324,7 +17370,7 @@
       </c>
       <c r="D296" s="1"/>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" s="1" t="s">
         <v>1371</v>
       </c>
@@ -17334,7 +17380,7 @@
       </c>
       <c r="D297" s="1"/>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" s="1" t="s">
         <v>1377</v>
       </c>
@@ -17346,7 +17392,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" s="1" t="s">
         <v>1377</v>
       </c>
@@ -17358,7 +17404,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" s="1" t="s">
         <v>1377</v>
       </c>
@@ -17370,7 +17416,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" s="1" t="s">
         <v>1384</v>
       </c>
@@ -17380,7 +17426,7 @@
       </c>
       <c r="D301" s="1"/>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" s="1" t="s">
         <v>1384</v>
       </c>
@@ -17390,7 +17436,7 @@
       </c>
       <c r="D302" s="1"/>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" s="1" t="s">
         <v>1387</v>
       </c>
@@ -17398,7 +17444,7 @@
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" s="1" t="s">
         <v>1388</v>
       </c>
@@ -17410,7 +17456,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A305" s="1" t="s">
         <v>1388</v>
       </c>
@@ -17422,7 +17468,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306" s="1" t="s">
         <v>1388</v>
       </c>
@@ -17434,7 +17480,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307" s="1" t="s">
         <v>1388</v>
       </c>
@@ -17446,7 +17492,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308" s="1" t="s">
         <v>1388</v>
       </c>
@@ -17458,7 +17504,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309" s="1" t="s">
         <v>1388</v>
       </c>
@@ -17470,7 +17516,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A310" s="1" t="s">
         <v>1401</v>
       </c>
@@ -17482,7 +17528,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A311" s="1" t="s">
         <v>1401</v>
       </c>
@@ -17494,7 +17540,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A312" s="1" t="s">
         <v>1401</v>
       </c>
@@ -17506,7 +17552,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A313" s="1" t="s">
         <v>1401</v>
       </c>
@@ -17518,7 +17564,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A314" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17530,7 +17576,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17542,7 +17588,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A316" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17554,7 +17600,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17566,7 +17612,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A318" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17578,7 +17624,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A319" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17590,7 +17636,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A320" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17602,7 +17648,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17614,7 +17660,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17626,7 +17672,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17638,7 +17684,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17650,7 +17696,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17662,7 +17708,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17674,7 +17720,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17686,7 +17732,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17698,7 +17744,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17710,7 +17756,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17722,7 +17768,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17734,7 +17780,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17746,7 +17792,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A333" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17758,7 +17804,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A334" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17770,7 +17816,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A335" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17782,7 +17828,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" s="1" t="s">
         <v>1453</v>
       </c>
@@ -17790,7 +17836,7 @@
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337" s="1" t="s">
         <v>1454</v>
       </c>
@@ -17802,7 +17848,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" s="1" t="s">
         <v>1454</v>
       </c>
@@ -17814,7 +17860,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339" s="1" t="s">
         <v>1454</v>
       </c>
@@ -17826,7 +17872,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A340" s="1" t="s">
         <v>1461</v>
       </c>
@@ -17836,7 +17882,7 @@
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" s="1" t="s">
         <v>1462</v>
       </c>
@@ -17848,7 +17894,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" s="1" t="s">
         <v>1462</v>
       </c>
@@ -17860,7 +17906,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" s="1" t="s">
         <v>1462</v>
       </c>
@@ -17872,7 +17918,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" s="1" t="s">
         <v>1462</v>
       </c>
@@ -17884,7 +17930,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" s="1" t="s">
         <v>1462</v>
       </c>
@@ -17896,7 +17942,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A346" s="1" t="s">
         <v>1462</v>
       </c>
@@ -17908,7 +17954,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" s="1" t="s">
         <v>1475</v>
       </c>
@@ -17918,7 +17964,7 @@
       </c>
       <c r="D347" s="1"/>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" s="1" t="s">
         <v>1475</v>
       </c>
@@ -17928,7 +17974,7 @@
       </c>
       <c r="D348" s="1"/>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" s="1" t="s">
         <v>1475</v>
       </c>
@@ -17938,7 +17984,7 @@
       </c>
       <c r="D349" s="1"/>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" s="1" t="s">
         <v>1475</v>
       </c>
@@ -17948,7 +17994,7 @@
       </c>
       <c r="D350" s="1"/>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" s="1" t="s">
         <v>1475</v>
       </c>
@@ -17958,7 +18004,7 @@
       </c>
       <c r="D351" s="1"/>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" s="1" t="s">
         <v>1475</v>
       </c>
@@ -17968,7 +18014,7 @@
       </c>
       <c r="D352" s="1"/>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" s="1" t="s">
         <v>1475</v>
       </c>
@@ -17978,7 +18024,7 @@
       </c>
       <c r="D353" s="1"/>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" s="1" t="s">
         <v>1483</v>
       </c>
@@ -17990,7 +18036,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" s="1" t="s">
         <v>1483</v>
       </c>
@@ -18002,7 +18048,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A356" s="1" t="s">
         <v>1488</v>
       </c>
@@ -18014,7 +18060,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A357" s="1" t="s">
         <v>1488</v>
       </c>
@@ -18026,7 +18072,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A358" s="1" t="s">
         <v>1493</v>
       </c>
@@ -18038,7 +18084,7 @@
       </c>
       <c r="D358" s="1"/>
     </row>
-    <row r="359" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A359" s="1" t="s">
         <v>1493</v>
       </c>
@@ -18050,7 +18096,7 @@
       </c>
       <c r="D359" s="1"/>
     </row>
-    <row r="360" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A360" s="1" t="s">
         <v>1493</v>
       </c>
@@ -18062,7 +18108,7 @@
       </c>
       <c r="D360" s="1"/>
     </row>
-    <row r="361" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A361" s="1" t="s">
         <v>1493</v>
       </c>
@@ -18074,7 +18120,7 @@
       </c>
       <c r="D361" s="1"/>
     </row>
-    <row r="362" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A362" s="1" t="s">
         <v>1493</v>
       </c>
@@ -18086,7 +18132,7 @@
       </c>
       <c r="D362" s="1"/>
     </row>
-    <row r="363" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A363" s="1" t="s">
         <v>1500</v>
       </c>
@@ -18098,7 +18144,7 @@
       </c>
       <c r="D363" s="1"/>
     </row>
-    <row r="364" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A364" s="1" t="s">
         <v>1500</v>
       </c>
@@ -18110,7 +18156,7 @@
       </c>
       <c r="D364" s="1"/>
     </row>
-    <row r="365" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A365" s="1" t="s">
         <v>1500</v>
       </c>
@@ -18122,7 +18168,7 @@
       </c>
       <c r="D365" s="1"/>
     </row>
-    <row r="366" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A366" s="1" t="s">
         <v>1500</v>
       </c>
@@ -18134,7 +18180,7 @@
       </c>
       <c r="D366" s="1"/>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A367" s="1" t="s">
         <v>1506</v>
       </c>
@@ -18146,7 +18192,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A368" s="1" t="s">
         <v>1506</v>
       </c>
@@ -18158,7 +18204,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A369" s="1" t="s">
         <v>1506</v>
       </c>
@@ -18170,7 +18216,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A370" s="1" t="s">
         <v>1506</v>
       </c>
@@ -18182,7 +18228,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A371" s="1" t="s">
         <v>1506</v>
       </c>
@@ -18194,7 +18240,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A372" s="1" t="s">
         <v>1516</v>
       </c>
@@ -18204,7 +18250,7 @@
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A373" s="1" t="s">
         <v>1518</v>
       </c>
@@ -18212,7 +18258,7 @@
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A374" s="1" t="s">
         <v>1519</v>
       </c>
@@ -18236,172 +18282,172 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -18419,712 +18465,712 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
         <v>1521</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="9" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="10" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="9" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="10" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="10" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="10" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="10" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="10" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="9" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="10" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="10" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="9" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="10" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="9" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="9" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="10" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="9" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="10" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="9" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="10" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="9" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="9" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="10" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="9" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="10" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="9" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="10" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="10" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="9" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="10" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="9" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="10" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="9" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="10" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="9" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="10" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="9" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="9" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="10" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="9" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="10" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="9" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="10" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="9" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="9" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="10" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="9" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="9" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="9" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="10" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="9" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="10" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="9" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="10" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="9" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="10" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="9" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="10" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="9" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="10" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="9" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="10" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="9" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="10" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="9" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="10" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="9" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="10" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="10" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="9" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="10" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="9" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="10" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="9" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="10" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="9" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="10" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="9" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="10" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="9" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="10" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="9" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="10" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="9" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="10" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="9" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="10" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="9" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="10" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="10" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="9" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="10" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="10" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="9" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="9" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="9" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="10" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="9" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="10" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="10" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="9" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="10" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="9" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="10" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="9" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="10" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="10" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="9" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="10" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="10" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="9" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="10" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="10" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="9" t="s">
         <v>544</v>
       </c>

--- a/ePO_definitions.xlsx
+++ b/ePO_definitions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12833"/>
   </bookViews>
   <sheets>
     <sheet name="AttributesNotDefin" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Attibutes" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -5345,7 +5344,7 @@
     <t>DONE, BUT ACTION POINT FOR EVERIS: CHECK INTO THE XML INSTANCES WHAT ARE THE ACTUAL VALUES PROVIDED</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>ACTION POINT FOR EVERIS: CHECK EXISTING DEFINITIONS OF FORMULA IN OTHER DOMAIN ONTOLOGIES (E.G. STATISTICAL, EURO SCIVOC, ETC.)</t>
   </si>
 </sst>
 </file>
@@ -5978,7 +5977,7 @@
   <dimension ref="A1:H427"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A305" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G325" sqref="G325"/>
+      <selection activeCell="D329" sqref="D329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.73046875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -11698,7 +11697,7 @@
       <c r="C329" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="D329" s="7" t="s">
+      <c r="D329" s="28" t="s">
         <v>1576</v>
       </c>
       <c r="E329" s="7" t="s">

--- a/ePO_definitions.xlsx
+++ b/ePO_definitions.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3373" uniqueCount="1577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3374" uniqueCount="1578">
   <si>
     <t>ClassName</t>
   </si>
@@ -5345,6 +5345,9 @@
   </si>
   <si>
     <t>ACTION POINT FOR EVERIS: CHECK EXISTING DEFINITIONS OF FORMULA IN OTHER DOMAIN ONTOLOGIES (E.G. STATISTICAL, EURO SCIVOC, ETC.)</t>
+  </si>
+  <si>
+    <t>DONE: HAS BEEN REMOVED/REPLACED BY the attribute epo:usageNotYetKnown</t>
   </si>
 </sst>
 </file>
@@ -5977,7 +5980,7 @@
   <dimension ref="A1:H427"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A305" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D329" sqref="D329"/>
+      <selection activeCell="D330" sqref="D330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.73046875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -11717,13 +11720,17 @@
       <c r="C330" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="D330" s="7"/>
+      <c r="D330" s="7" t="s">
+        <v>1577</v>
+      </c>
       <c r="E330" s="7" t="s">
         <v>729</v>
       </c>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
-      <c r="H330" s="2"/>
+      <c r="H330" s="24">
+        <v>44114</v>
+      </c>
     </row>
     <row r="331" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A331" s="7" t="s">

--- a/ePO_definitions.xlsx
+++ b/ePO_definitions.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ePO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseguraf\Documents\GitHub\eprocurementontology\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12833"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="AttributesNotDefin" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3374" uniqueCount="1578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3375" uniqueCount="1579">
   <si>
     <t>ClassName</t>
   </si>
@@ -5348,6 +5348,9 @@
   </si>
   <si>
     <t>DONE: HAS BEEN REMOVED/REPLACED BY the attribute epo:usageNotYetKnown</t>
+  </si>
+  <si>
+    <t>DONE: The WG decided to move the SelectionCriterionType  to Criterion with a generic name "Type". Therefore the AwardCriterionType was also removed from the AwardCriterion. The codelists AwardCriterionType and SelectionCriterionType are kept in the SelectionCriterion class and also in the AwardCrierion class since the Type attribute is inherited from the Criterion class.</t>
   </si>
 </sst>
 </file>
@@ -5715,7 +5718,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5980,23 +5983,23 @@
   <dimension ref="A1:H427"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A305" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D330" sqref="D330"/>
+      <selection activeCell="N340" sqref="N340"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.73046875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.3984375" style="2" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="48.3984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.86328125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.86328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.73046875" style="6"/>
-    <col min="7" max="7" width="14.1328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.86328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.73046875" style="6"/>
+    <col min="2" max="2" width="47.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="6"/>
+    <col min="7" max="7" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6022,7 +6025,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>129</v>
       </c>
@@ -6034,7 +6037,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>128</v>
       </c>
@@ -6046,7 +6049,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>130</v>
       </c>
@@ -6058,7 +6061,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -6075,7 +6078,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -6092,7 +6095,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="27" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" s="27" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>5</v>
       </c>
@@ -6110,7 +6113,7 @@
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="242.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -6127,7 +6130,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -6141,7 +6144,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -6159,7 +6162,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
@@ -6177,7 +6180,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -6195,7 +6198,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
@@ -6213,7 +6216,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
@@ -6231,7 +6234,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
@@ -6249,7 +6252,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
@@ -6267,7 +6270,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>7</v>
       </c>
@@ -6285,7 +6288,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>7</v>
       </c>
@@ -6303,7 +6306,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>7</v>
       </c>
@@ -6321,7 +6324,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>7</v>
       </c>
@@ -6339,7 +6342,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>7</v>
       </c>
@@ -6357,7 +6360,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>7</v>
       </c>
@@ -6375,7 +6378,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -6392,7 +6395,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>7</v>
       </c>
@@ -6410,7 +6413,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>7</v>
       </c>
@@ -6428,7 +6431,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>7</v>
       </c>
@@ -6446,7 +6449,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>7</v>
       </c>
@@ -6464,7 +6467,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>7</v>
       </c>
@@ -6482,7 +6485,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>7</v>
       </c>
@@ -6500,7 +6503,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>7</v>
       </c>
@@ -6518,7 +6521,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>7</v>
       </c>
@@ -6536,7 +6539,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>7</v>
       </c>
@@ -6554,7 +6557,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>7</v>
       </c>
@@ -6572,7 +6575,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -6589,7 +6592,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="2" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" s="2" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -6606,7 +6609,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>9</v>
       </c>
@@ -6624,7 +6627,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -6641,7 +6644,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>9</v>
       </c>
@@ -6659,7 +6662,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -6676,7 +6679,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>9</v>
       </c>
@@ -6694,7 +6697,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -6711,7 +6714,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
@@ -6728,7 +6731,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>9</v>
       </c>
@@ -6746,7 +6749,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>9</v>
       </c>
@@ -6764,7 +6767,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>9</v>
       </c>
@@ -6782,7 +6785,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>9</v>
       </c>
@@ -6800,7 +6803,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>10</v>
       </c>
@@ -6817,7 +6820,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
@@ -6834,7 +6837,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
@@ -6851,7 +6854,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
         <v>10</v>
       </c>
@@ -6869,7 +6872,7 @@
       <c r="G50" s="26"/>
       <c r="H50" s="26"/>
     </row>
-    <row r="51" spans="1:8" s="2" customFormat="1" ht="185.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" s="2" customFormat="1" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
@@ -6886,7 +6889,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="2" customFormat="1" ht="370.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" s="2" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>12</v>
       </c>
@@ -6903,7 +6906,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>12</v>
       </c>
@@ -6921,7 +6924,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" s="2" customFormat="1" ht="356.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" s="2" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>13</v>
       </c>
@@ -6938,7 +6941,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="2" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" s="2" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>13</v>
       </c>
@@ -6955,7 +6958,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>14</v>
       </c>
@@ -6969,7 +6972,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>15</v>
       </c>
@@ -6983,7 +6986,7 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>16</v>
       </c>
@@ -6997,7 +7000,7 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>17</v>
       </c>
@@ -7011,7 +7014,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>18</v>
       </c>
@@ -7025,7 +7028,7 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>19</v>
       </c>
@@ -7042,7 +7045,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>19</v>
       </c>
@@ -7059,7 +7062,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="2" customFormat="1" ht="185.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" s="2" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>19</v>
       </c>
@@ -7076,7 +7079,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>19</v>
       </c>
@@ -7093,7 +7096,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>19</v>
       </c>
@@ -7110,7 +7113,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" s="2" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
@@ -7127,7 +7130,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" s="2" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>20</v>
       </c>
@@ -7144,7 +7147,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" ht="213.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" s="2" customFormat="1" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>20</v>
       </c>
@@ -7161,7 +7164,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" s="2" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>20</v>
       </c>
@@ -7178,7 +7181,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" s="2" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>20</v>
       </c>
@@ -7195,7 +7198,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" ht="370.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" s="2" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
@@ -7212,7 +7215,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>21</v>
       </c>
@@ -7224,7 +7227,7 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" s="2" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>22</v>
       </c>
@@ -7241,7 +7244,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" s="2" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>22</v>
       </c>
@@ -7258,7 +7261,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="2" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" s="2" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>22</v>
       </c>
@@ -7275,7 +7278,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="2" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" s="2" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>22</v>
       </c>
@@ -7292,7 +7295,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="2" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" s="2" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>22</v>
       </c>
@@ -7309,7 +7312,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="2" customFormat="1" ht="242.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" s="2" customFormat="1" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>23</v>
       </c>
@@ -7326,7 +7329,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>23</v>
       </c>
@@ -7343,7 +7346,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>23</v>
       </c>
@@ -7360,7 +7363,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="2" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" s="2" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>23</v>
       </c>
@@ -7377,7 +7380,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>24</v>
       </c>
@@ -7391,7 +7394,7 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>25</v>
       </c>
@@ -7408,7 +7411,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>25</v>
       </c>
@@ -7425,7 +7428,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
         <v>25</v>
       </c>
@@ -7443,7 +7446,7 @@
       <c r="G85" s="26"/>
       <c r="H85" s="26"/>
     </row>
-    <row r="86" spans="1:8" s="2" customFormat="1" ht="228" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" s="2" customFormat="1" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>26</v>
       </c>
@@ -7460,7 +7463,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>26</v>
       </c>
@@ -7477,7 +7480,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>27</v>
       </c>
@@ -7489,7 +7492,7 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
     </row>
-    <row r="89" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>28</v>
       </c>
@@ -7501,7 +7504,7 @@
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
     </row>
-    <row r="90" spans="1:8" s="2" customFormat="1" ht="171" hidden="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" s="2" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>29</v>
       </c>
@@ -7518,7 +7521,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="2" customFormat="1" ht="228" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" s="2" customFormat="1" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>29</v>
       </c>
@@ -7535,7 +7538,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" s="2" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>29</v>
       </c>
@@ -7552,7 +7555,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>29</v>
       </c>
@@ -7569,7 +7572,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>29</v>
       </c>
@@ -7586,7 +7589,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>29</v>
       </c>
@@ -7604,7 +7607,7 @@
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
     </row>
-    <row r="96" spans="1:8" s="2" customFormat="1" ht="299.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>29</v>
       </c>
@@ -7621,7 +7624,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="2" customFormat="1" ht="270.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" s="2" customFormat="1" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>29</v>
       </c>
@@ -7638,7 +7641,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="2" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" s="2" customFormat="1" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>29</v>
       </c>
@@ -7655,7 +7658,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>29</v>
       </c>
@@ -7672,7 +7675,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>29</v>
       </c>
@@ -7689,7 +7692,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>29</v>
       </c>
@@ -7711,7 +7714,7 @@
       </c>
       <c r="H101" s="2"/>
     </row>
-    <row r="102" spans="1:8" s="2" customFormat="1" ht="99.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8" s="2" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>29</v>
       </c>
@@ -7728,7 +7731,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>30</v>
       </c>
@@ -7748,7 +7751,7 @@
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
     </row>
-    <row r="104" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>30</v>
       </c>
@@ -7765,7 +7768,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>31</v>
       </c>
@@ -7779,7 +7782,7 @@
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
     </row>
-    <row r="106" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>32</v>
       </c>
@@ -7801,7 +7804,7 @@
       </c>
       <c r="H106" s="2"/>
     </row>
-    <row r="107" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>32</v>
       </c>
@@ -7818,7 +7821,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>32</v>
       </c>
@@ -7835,7 +7838,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>32</v>
       </c>
@@ -7852,7 +7855,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>33</v>
       </c>
@@ -7874,7 +7877,7 @@
       </c>
       <c r="H110" s="2"/>
     </row>
-    <row r="111" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>33</v>
       </c>
@@ -7896,7 +7899,7 @@
       </c>
       <c r="H111" s="2"/>
     </row>
-    <row r="112" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>33</v>
       </c>
@@ -7918,7 +7921,7 @@
       </c>
       <c r="H112" s="2"/>
     </row>
-    <row r="113" spans="1:8" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:8" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>33</v>
       </c>
@@ -7935,7 +7938,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>33</v>
       </c>
@@ -7957,7 +7960,7 @@
       </c>
       <c r="H114" s="2"/>
     </row>
-    <row r="115" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>33</v>
       </c>
@@ -7979,7 +7982,7 @@
       </c>
       <c r="H115" s="2"/>
     </row>
-    <row r="116" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>33</v>
       </c>
@@ -8001,7 +8004,7 @@
       </c>
       <c r="H116" s="2"/>
     </row>
-    <row r="117" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>33</v>
       </c>
@@ -8023,7 +8026,7 @@
       </c>
       <c r="H117" s="2"/>
     </row>
-    <row r="118" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>33</v>
       </c>
@@ -8045,7 +8048,7 @@
       </c>
       <c r="H118" s="2"/>
     </row>
-    <row r="119" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>34</v>
       </c>
@@ -8059,7 +8062,7 @@
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
     </row>
-    <row r="120" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>35</v>
       </c>
@@ -8081,7 +8084,7 @@
       </c>
       <c r="H120" s="2"/>
     </row>
-    <row r="121" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>35</v>
       </c>
@@ -8098,7 +8101,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>35</v>
       </c>
@@ -8120,7 +8123,7 @@
       </c>
       <c r="H122" s="2"/>
     </row>
-    <row r="123" spans="1:8" s="2" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:8" s="2" customFormat="1" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>36</v>
       </c>
@@ -8137,7 +8140,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>36</v>
       </c>
@@ -8155,7 +8158,7 @@
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
     </row>
-    <row r="125" spans="1:8" s="2" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>37</v>
       </c>
@@ -8172,7 +8175,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="2" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>37</v>
       </c>
@@ -8189,7 +8192,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="2" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>37</v>
       </c>
@@ -8206,7 +8209,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="128" spans="1:8" s="2" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>37</v>
       </c>
@@ -8223,7 +8226,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="2" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>37</v>
       </c>
@@ -8240,7 +8243,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="2" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>37</v>
       </c>
@@ -8257,7 +8260,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="2" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>37</v>
       </c>
@@ -8274,7 +8277,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>38</v>
       </c>
@@ -8290,7 +8293,7 @@
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
     </row>
-    <row r="133" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>38</v>
       </c>
@@ -8306,7 +8309,7 @@
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
     </row>
-    <row r="134" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>38</v>
       </c>
@@ -8322,7 +8325,7 @@
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
     </row>
-    <row r="135" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>39</v>
       </c>
@@ -8334,7 +8337,7 @@
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
     </row>
-    <row r="136" spans="1:8" s="2" customFormat="1" ht="99.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:8" s="2" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>40</v>
       </c>
@@ -8351,7 +8354,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="137" spans="1:8" s="2" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:8" s="2" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>40</v>
       </c>
@@ -8368,7 +8371,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>41</v>
       </c>
@@ -8382,7 +8385,7 @@
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
     </row>
-    <row r="139" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>42</v>
       </c>
@@ -8396,7 +8399,7 @@
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
     </row>
-    <row r="140" spans="1:8" s="2" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:8" s="2" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>43</v>
       </c>
@@ -8413,7 +8416,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>43</v>
       </c>
@@ -8435,7 +8438,7 @@
       </c>
       <c r="H141" s="2"/>
     </row>
-    <row r="142" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>43</v>
       </c>
@@ -8455,7 +8458,7 @@
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
     </row>
-    <row r="143" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>43</v>
       </c>
@@ -8472,7 +8475,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>44</v>
       </c>
@@ -8489,7 +8492,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>45</v>
       </c>
@@ -8503,7 +8506,7 @@
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
     </row>
-    <row r="146" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>46</v>
       </c>
@@ -8517,7 +8520,7 @@
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
     </row>
-    <row r="147" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
         <v>47</v>
       </c>
@@ -8537,7 +8540,7 @@
       </c>
       <c r="H147" s="2"/>
     </row>
-    <row r="148" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
         <v>47</v>
       </c>
@@ -8555,7 +8558,7 @@
       <c r="G148" s="14"/>
       <c r="H148" s="2"/>
     </row>
-    <row r="149" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>48</v>
       </c>
@@ -8572,7 +8575,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>48</v>
       </c>
@@ -8590,7 +8593,7 @@
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
     </row>
-    <row r="151" spans="1:8" s="2" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:8" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>48</v>
       </c>
@@ -8607,7 +8610,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="12" t="s">
         <v>48</v>
       </c>
@@ -8627,7 +8630,7 @@
       <c r="G152" s="14"/>
       <c r="H152" s="2"/>
     </row>
-    <row r="153" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="12" t="s">
         <v>49</v>
       </c>
@@ -8647,7 +8650,7 @@
       <c r="G153" s="14"/>
       <c r="H153" s="2"/>
     </row>
-    <row r="154" spans="1:8" s="2" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:8" s="2" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>50</v>
       </c>
@@ -8664,7 +8667,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
         <v>50</v>
       </c>
@@ -8684,7 +8687,7 @@
       <c r="G155" s="15"/>
       <c r="H155" s="2"/>
     </row>
-    <row r="156" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
         <v>50</v>
       </c>
@@ -8704,7 +8707,7 @@
       <c r="G156" s="15"/>
       <c r="H156" s="2"/>
     </row>
-    <row r="157" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
         <v>50</v>
       </c>
@@ -8724,7 +8727,7 @@
       <c r="G157" s="15"/>
       <c r="H157" s="2"/>
     </row>
-    <row r="158" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>51</v>
       </c>
@@ -8736,7 +8739,7 @@
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
     </row>
-    <row r="159" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="12" t="s">
         <v>52</v>
       </c>
@@ -8758,7 +8761,7 @@
       </c>
       <c r="H159" s="2"/>
     </row>
-    <row r="160" spans="1:8" s="2" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:8" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>52</v>
       </c>
@@ -8775,7 +8778,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>52</v>
       </c>
@@ -8793,7 +8796,7 @@
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
     </row>
-    <row r="162" spans="1:8" s="2" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:8" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>52</v>
       </c>
@@ -8810,7 +8813,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
         <v>53</v>
       </c>
@@ -8830,7 +8833,7 @@
       <c r="G163" s="14"/>
       <c r="H163" s="2"/>
     </row>
-    <row r="164" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="12" t="s">
         <v>54</v>
       </c>
@@ -8850,7 +8853,7 @@
       <c r="G164" s="14"/>
       <c r="H164" s="2"/>
     </row>
-    <row r="165" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="12" t="s">
         <v>54</v>
       </c>
@@ -8870,7 +8873,7 @@
       <c r="G165" s="14"/>
       <c r="H165" s="2"/>
     </row>
-    <row r="166" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="12" t="s">
         <v>54</v>
       </c>
@@ -8890,7 +8893,7 @@
       <c r="G166" s="14"/>
       <c r="H166" s="2"/>
     </row>
-    <row r="167" spans="1:8" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:8" s="2" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>54</v>
       </c>
@@ -8907,7 +8910,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="12" t="s">
         <v>54</v>
       </c>
@@ -8927,7 +8930,7 @@
       <c r="G168" s="14"/>
       <c r="H168" s="2"/>
     </row>
-    <row r="169" spans="1:8" s="2" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:8" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>54</v>
       </c>
@@ -8944,7 +8947,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="170" spans="1:8" s="2" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:8" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>54</v>
       </c>
@@ -8961,7 +8964,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="12" t="s">
         <v>54</v>
       </c>
@@ -8981,7 +8984,7 @@
       <c r="G171" s="14"/>
       <c r="H171" s="2"/>
     </row>
-    <row r="172" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
         <v>55</v>
       </c>
@@ -8995,7 +8998,7 @@
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
     </row>
-    <row r="173" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>56</v>
       </c>
@@ -9007,7 +9010,7 @@
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
     </row>
-    <row r="174" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="s">
         <v>57</v>
       </c>
@@ -9025,7 +9028,7 @@
       <c r="G174" s="15"/>
       <c r="H174" s="2"/>
     </row>
-    <row r="175" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="s">
         <v>57</v>
       </c>
@@ -9043,7 +9046,7 @@
       <c r="G175" s="15"/>
       <c r="H175" s="2"/>
     </row>
-    <row r="176" spans="1:8" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>58</v>
       </c>
@@ -9058,7 +9061,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="177" spans="1:8" s="2" customFormat="1" ht="99.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:8" s="2" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>58</v>
       </c>
@@ -9073,7 +9076,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
         <v>59</v>
       </c>
@@ -9093,7 +9096,7 @@
       <c r="G178" s="14"/>
       <c r="H178" s="2"/>
     </row>
-    <row r="179" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>60</v>
       </c>
@@ -9107,7 +9110,7 @@
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
     </row>
-    <row r="180" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>61</v>
       </c>
@@ -9121,7 +9124,7 @@
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
     </row>
-    <row r="181" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:8" s="2" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>62</v>
       </c>
@@ -9138,7 +9141,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="182" spans="1:8" s="2" customFormat="1" ht="213.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:8" s="2" customFormat="1" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>62</v>
       </c>
@@ -9155,7 +9158,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="183" spans="1:8" s="2" customFormat="1" ht="270.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:8" s="2" customFormat="1" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>62</v>
       </c>
@@ -9172,7 +9175,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="184" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:8" s="2" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>62</v>
       </c>
@@ -9189,7 +9192,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="185" spans="1:8" s="2" customFormat="1" ht="256.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:8" s="2" customFormat="1" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>63</v>
       </c>
@@ -9206,7 +9209,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="186" spans="1:8" s="2" customFormat="1" ht="270.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:8" s="2" customFormat="1" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>64</v>
       </c>
@@ -9223,7 +9226,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="187" spans="1:8" s="2" customFormat="1" ht="270.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:8" s="2" customFormat="1" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>64</v>
       </c>
@@ -9240,7 +9243,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="188" spans="1:8" s="2" customFormat="1" ht="342" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:8" s="2" customFormat="1" ht="405" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>64</v>
       </c>
@@ -9257,7 +9260,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>65</v>
       </c>
@@ -9271,7 +9274,7 @@
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
     </row>
-    <row r="190" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>66</v>
       </c>
@@ -9285,7 +9288,7 @@
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
     </row>
-    <row r="191" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>67</v>
       </c>
@@ -9297,7 +9300,7 @@
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
     </row>
-    <row r="192" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
         <v>68</v>
       </c>
@@ -9315,7 +9318,7 @@
       <c r="G192" s="14"/>
       <c r="H192" s="2"/>
     </row>
-    <row r="193" spans="1:8" s="2" customFormat="1" ht="171" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:8" s="2" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>68</v>
       </c>
@@ -9330,7 +9333,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="194" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>68</v>
       </c>
@@ -9345,7 +9348,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="195" spans="1:8" s="2" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:8" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>68</v>
       </c>
@@ -9360,7 +9363,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="196" spans="1:8" s="2" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:8" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>68</v>
       </c>
@@ -9375,7 +9378,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>69</v>
       </c>
@@ -9389,7 +9392,7 @@
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
     </row>
-    <row r="198" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
         <v>70</v>
       </c>
@@ -9407,7 +9410,7 @@
       <c r="G198" s="14"/>
       <c r="H198" s="2"/>
     </row>
-    <row r="199" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="12" t="s">
         <v>70</v>
       </c>
@@ -9425,7 +9428,7 @@
       <c r="G199" s="14"/>
       <c r="H199" s="2"/>
     </row>
-    <row r="200" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="12" t="s">
         <v>70</v>
       </c>
@@ -9443,7 +9446,7 @@
       <c r="G200" s="14"/>
       <c r="H200" s="2"/>
     </row>
-    <row r="201" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="12" t="s">
         <v>70</v>
       </c>
@@ -9461,7 +9464,7 @@
       <c r="G201" s="14"/>
       <c r="H201" s="2"/>
     </row>
-    <row r="202" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
         <v>70</v>
       </c>
@@ -9479,7 +9482,7 @@
       <c r="G202" s="14"/>
       <c r="H202" s="2"/>
     </row>
-    <row r="203" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
         <v>70</v>
       </c>
@@ -9497,7 +9500,7 @@
       <c r="G203" s="14"/>
       <c r="H203" s="2"/>
     </row>
-    <row r="204" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
         <v>70</v>
       </c>
@@ -9515,7 +9518,7 @@
       <c r="G204" s="14"/>
       <c r="H204" s="2"/>
     </row>
-    <row r="205" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
         <v>70</v>
       </c>
@@ -9533,7 +9536,7 @@
       <c r="G205" s="14"/>
       <c r="H205" s="2"/>
     </row>
-    <row r="206" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>71</v>
       </c>
@@ -9550,7 +9553,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>71</v>
       </c>
@@ -9567,7 +9570,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="208" spans="1:8" s="2" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:8" s="2" customFormat="1" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>71</v>
       </c>
@@ -9584,7 +9587,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="209" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>71</v>
       </c>
@@ -9601,7 +9604,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="16" t="s">
         <v>71</v>
       </c>
@@ -9621,7 +9624,7 @@
       </c>
       <c r="H210" s="2"/>
     </row>
-    <row r="211" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="16" t="s">
         <v>71</v>
       </c>
@@ -9641,7 +9644,7 @@
       </c>
       <c r="H211" s="2"/>
     </row>
-    <row r="212" spans="1:8" s="2" customFormat="1" ht="270.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:8" s="2" customFormat="1" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>71</v>
       </c>
@@ -9658,7 +9661,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="213" spans="1:8" s="2" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:8" s="2" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>71</v>
       </c>
@@ -9675,7 +9678,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="214" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:8" s="2" customFormat="1" ht="390" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>71</v>
       </c>
@@ -9692,7 +9695,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="215" spans="1:8" s="2" customFormat="1" ht="270.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:8" s="2" customFormat="1" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>72</v>
       </c>
@@ -9709,7 +9712,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="216" spans="1:8" s="2" customFormat="1" ht="270.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:8" s="2" customFormat="1" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>72</v>
       </c>
@@ -9726,7 +9729,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="217" spans="1:8" s="2" customFormat="1" ht="270.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:8" s="2" customFormat="1" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>72</v>
       </c>
@@ -9743,7 +9746,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="12" t="s">
         <v>73</v>
       </c>
@@ -9761,7 +9764,7 @@
       <c r="G218" s="14"/>
       <c r="H218" s="2"/>
     </row>
-    <row r="219" spans="1:8" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:8" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>74</v>
       </c>
@@ -9776,7 +9779,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="220" spans="1:8" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>74</v>
       </c>
@@ -9791,7 +9794,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="12" t="s">
         <v>74</v>
       </c>
@@ -9809,7 +9812,7 @@
       <c r="G221" s="14"/>
       <c r="H221" s="2"/>
     </row>
-    <row r="222" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>74</v>
       </c>
@@ -9824,7 +9827,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="223" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>74</v>
       </c>
@@ -9839,7 +9842,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="224" spans="1:8" s="2" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:8" s="2" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>74</v>
       </c>
@@ -9854,7 +9857,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="225" spans="1:8" s="2" customFormat="1" ht="171" hidden="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:8" s="2" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>74</v>
       </c>
@@ -9869,7 +9872,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="226" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>75</v>
       </c>
@@ -9886,7 +9889,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="227" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>75</v>
       </c>
@@ -9903,7 +9906,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="228" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>75</v>
       </c>
@@ -9920,7 +9923,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="229" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>75</v>
       </c>
@@ -9937,7 +9940,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="230" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>76</v>
       </c>
@@ -9954,7 +9957,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="231" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>77</v>
       </c>
@@ -9969,7 +9972,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="232" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>77</v>
       </c>
@@ -9984,7 +9987,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>78</v>
       </c>
@@ -10004,7 +10007,7 @@
       <c r="G233" s="2"/>
       <c r="H233" s="2"/>
     </row>
-    <row r="234" spans="1:8" s="2" customFormat="1" ht="270.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:8" s="2" customFormat="1" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>78</v>
       </c>
@@ -10021,7 +10024,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="235" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>79</v>
       </c>
@@ -10038,7 +10041,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="236" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:8" s="2" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>79</v>
       </c>
@@ -10055,7 +10058,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="237" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>79</v>
       </c>
@@ -10072,7 +10075,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="238" spans="1:8" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:8" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>79</v>
       </c>
@@ -10089,7 +10092,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="239" spans="1:8" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:8" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>79</v>
       </c>
@@ -10106,7 +10109,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="240" spans="1:8" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:8" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>79</v>
       </c>
@@ -10123,7 +10126,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="241" spans="1:8" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:8" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>79</v>
       </c>
@@ -10140,7 +10143,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="242" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>80</v>
       </c>
@@ -10157,7 +10160,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="12" t="s">
         <v>80</v>
       </c>
@@ -10177,7 +10180,7 @@
       <c r="G243" s="14"/>
       <c r="H243" s="2"/>
     </row>
-    <row r="244" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>80</v>
       </c>
@@ -10194,7 +10197,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="245" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>80</v>
       </c>
@@ -10211,7 +10214,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="246" spans="1:8" s="2" customFormat="1" ht="99.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:8" s="2" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>80</v>
       </c>
@@ -10228,7 +10231,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="247" spans="1:8" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>80</v>
       </c>
@@ -10245,7 +10248,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="248" spans="1:8" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:8" s="2" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>80</v>
       </c>
@@ -10262,7 +10265,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="18" t="s">
         <v>80</v>
       </c>
@@ -10282,7 +10285,7 @@
       <c r="G249" s="19"/>
       <c r="H249" s="2"/>
     </row>
-    <row r="250" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>80</v>
       </c>
@@ -10299,7 +10302,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="251" spans="1:8" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>81</v>
       </c>
@@ -10316,7 +10319,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="252" spans="1:8" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>81</v>
       </c>
@@ -10333,7 +10336,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="253" spans="1:8" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>81</v>
       </c>
@@ -10350,7 +10353,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="20" t="s">
         <v>81</v>
       </c>
@@ -10372,7 +10375,7 @@
       </c>
       <c r="H254" s="2"/>
     </row>
-    <row r="255" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="20" t="s">
         <v>81</v>
       </c>
@@ -10394,7 +10397,7 @@
       </c>
       <c r="H255" s="2"/>
     </row>
-    <row r="256" spans="1:8" s="2" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:8" s="2" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>81</v>
       </c>
@@ -10411,7 +10414,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>82</v>
       </c>
@@ -10423,7 +10426,7 @@
       <c r="G257" s="2"/>
       <c r="H257" s="2"/>
     </row>
-    <row r="258" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>83</v>
       </c>
@@ -10435,7 +10438,7 @@
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
     </row>
-    <row r="259" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>84</v>
       </c>
@@ -10453,7 +10456,7 @@
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
     </row>
-    <row r="260" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>85</v>
       </c>
@@ -10468,7 +10471,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="261" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>85</v>
       </c>
@@ -10483,7 +10486,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="262" spans="1:8" s="2" customFormat="1" ht="171" hidden="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:8" s="2" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>86</v>
       </c>
@@ -10500,7 +10503,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="263" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:8" s="2" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>86</v>
       </c>
@@ -10517,7 +10520,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="12" t="s">
         <v>86</v>
       </c>
@@ -10537,7 +10540,7 @@
       <c r="G264" s="14"/>
       <c r="H264" s="2"/>
     </row>
-    <row r="265" spans="1:8" s="2" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:8" s="2" customFormat="1" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>86</v>
       </c>
@@ -10554,7 +10557,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="266" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>86</v>
       </c>
@@ -10571,7 +10574,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="267" spans="1:8" s="2" customFormat="1" ht="242.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:8" s="2" customFormat="1" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>86</v>
       </c>
@@ -10588,7 +10591,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
         <v>86</v>
       </c>
@@ -10610,7 +10613,7 @@
       </c>
       <c r="H268" s="2"/>
     </row>
-    <row r="269" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>86</v>
       </c>
@@ -10632,7 +10635,7 @@
       </c>
       <c r="H269" s="2"/>
     </row>
-    <row r="270" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>86</v>
       </c>
@@ -10652,7 +10655,7 @@
       <c r="G270" s="2"/>
       <c r="H270" s="2"/>
     </row>
-    <row r="271" spans="1:8" s="2" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:8" s="2" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>86</v>
       </c>
@@ -10669,7 +10672,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="272" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>86</v>
       </c>
@@ -10686,7 +10689,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="273" spans="1:8" s="2" customFormat="1" ht="242.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:8" s="2" customFormat="1" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>86</v>
       </c>
@@ -10703,7 +10706,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="274" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>86</v>
       </c>
@@ -10720,7 +10723,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>86</v>
       </c>
@@ -10738,7 +10741,7 @@
       <c r="G275" s="2"/>
       <c r="H275" s="2"/>
     </row>
-    <row r="276" spans="1:8" s="2" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:8" s="2" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>86</v>
       </c>
@@ -10755,7 +10758,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="277" spans="1:8" s="2" customFormat="1" ht="171" hidden="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:8" s="2" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>86</v>
       </c>
@@ -10772,7 +10775,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>87</v>
       </c>
@@ -10790,7 +10793,7 @@
       <c r="G278" s="2"/>
       <c r="H278" s="2"/>
     </row>
-    <row r="279" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>87</v>
       </c>
@@ -10808,7 +10811,7 @@
       <c r="G279" s="2"/>
       <c r="H279" s="2"/>
     </row>
-    <row r="280" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>87</v>
       </c>
@@ -10825,7 +10828,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="281" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>87</v>
       </c>
@@ -10842,7 +10845,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="282" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>87</v>
       </c>
@@ -10859,7 +10862,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="283" spans="1:8" s="2" customFormat="1" ht="185.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:8" s="2" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>87</v>
       </c>
@@ -10876,7 +10879,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="12" t="s">
         <v>87</v>
       </c>
@@ -10896,7 +10899,7 @@
       <c r="G284" s="14"/>
       <c r="H284" s="2"/>
     </row>
-    <row r="285" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:8" s="2" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>88</v>
       </c>
@@ -10913,7 +10916,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="286" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:8" s="2" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>88</v>
       </c>
@@ -10930,7 +10933,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>89</v>
       </c>
@@ -10942,7 +10945,7 @@
       <c r="G287" s="2"/>
       <c r="H287" s="2"/>
     </row>
-    <row r="288" spans="1:8" s="2" customFormat="1" ht="270.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:8" s="2" customFormat="1" ht="345" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>90</v>
       </c>
@@ -10959,7 +10962,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>91</v>
       </c>
@@ -10973,7 +10976,7 @@
       <c r="G289" s="2"/>
       <c r="H289" s="2"/>
     </row>
-    <row r="290" spans="1:8" s="2" customFormat="1" ht="213.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:8" s="2" customFormat="1" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>92</v>
       </c>
@@ -10990,7 +10993,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>92</v>
       </c>
@@ -11010,7 +11013,7 @@
       <c r="G291" s="2"/>
       <c r="H291" s="2"/>
     </row>
-    <row r="292" spans="1:8" s="2" customFormat="1" ht="213.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:8" s="2" customFormat="1" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>92</v>
       </c>
@@ -11027,7 +11030,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="22" t="s">
         <v>92</v>
       </c>
@@ -11049,7 +11052,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="294" spans="1:8" s="2" customFormat="1" ht="213.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:8" s="2" customFormat="1" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>92</v>
       </c>
@@ -11066,7 +11069,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="22" t="s">
         <v>92</v>
       </c>
@@ -11086,7 +11089,7 @@
       <c r="G295" s="23"/>
       <c r="H295" s="2"/>
     </row>
-    <row r="296" spans="1:8" s="2" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:8" s="2" customFormat="1" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>93</v>
       </c>
@@ -11103,7 +11106,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="297" spans="1:8" s="2" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:8" s="2" customFormat="1" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>93</v>
       </c>
@@ -11120,7 +11123,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="298" spans="1:8" s="2" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:8" s="2" customFormat="1" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>93</v>
       </c>
@@ -11137,7 +11140,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="299" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>94</v>
       </c>
@@ -11154,7 +11157,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="300" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>94</v>
       </c>
@@ -11171,7 +11174,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="301" spans="1:8" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>94</v>
       </c>
@@ -11188,7 +11191,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
         <v>95</v>
       </c>
@@ -11208,7 +11211,7 @@
       <c r="G302" s="2"/>
       <c r="H302" s="2"/>
     </row>
-    <row r="303" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="16" t="s">
         <v>95</v>
       </c>
@@ -11230,7 +11233,7 @@
       </c>
       <c r="H303" s="2"/>
     </row>
-    <row r="304" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
         <v>95</v>
       </c>
@@ -11250,7 +11253,7 @@
       <c r="G304" s="2"/>
       <c r="H304" s="2"/>
     </row>
-    <row r="305" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
         <v>95</v>
       </c>
@@ -11270,7 +11273,7 @@
       <c r="G305" s="2"/>
       <c r="H305" s="2"/>
     </row>
-    <row r="306" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
         <v>96</v>
       </c>
@@ -11286,7 +11289,7 @@
       <c r="G306" s="2"/>
       <c r="H306" s="2"/>
     </row>
-    <row r="307" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
         <v>97</v>
       </c>
@@ -11300,7 +11303,7 @@
       <c r="G307" s="2"/>
       <c r="H307" s="2"/>
     </row>
-    <row r="308" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
         <v>98</v>
       </c>
@@ -11320,7 +11323,7 @@
       <c r="G308" s="2"/>
       <c r="H308" s="2"/>
     </row>
-    <row r="309" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
         <v>98</v>
       </c>
@@ -11338,7 +11341,7 @@
       <c r="G309" s="2"/>
       <c r="H309" s="2"/>
     </row>
-    <row r="310" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
         <v>98</v>
       </c>
@@ -11358,7 +11361,7 @@
       <c r="G310" s="2"/>
       <c r="H310" s="2"/>
     </row>
-    <row r="311" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
         <v>98</v>
       </c>
@@ -11378,7 +11381,7 @@
       <c r="G311" s="2"/>
       <c r="H311" s="2"/>
     </row>
-    <row r="312" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:8" s="2" customFormat="1" ht="345" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>98</v>
       </c>
@@ -11395,7 +11398,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="313" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:8" s="2" customFormat="1" ht="345" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>98</v>
       </c>
@@ -11412,7 +11415,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
         <v>98</v>
       </c>
@@ -11434,7 +11437,7 @@
         <v>44021</v>
       </c>
     </row>
-    <row r="315" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:8" s="2" customFormat="1" ht="345" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>98</v>
       </c>
@@ -11451,7 +11454,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
         <v>98</v>
       </c>
@@ -11473,7 +11476,7 @@
         <v>44026</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
         <v>99</v>
       </c>
@@ -11491,7 +11494,7 @@
       <c r="G317" s="2"/>
       <c r="H317" s="2"/>
     </row>
-    <row r="318" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
         <v>100</v>
       </c>
@@ -11513,7 +11516,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
         <v>100</v>
       </c>
@@ -11535,7 +11538,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
         <v>101</v>
       </c>
@@ -11547,7 +11550,7 @@
       <c r="G320" s="2"/>
       <c r="H320" s="2"/>
     </row>
-    <row r="321" spans="1:8" s="2" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:8" s="2" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>102</v>
       </c>
@@ -11564,7 +11567,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="322" spans="1:8" s="2" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:8" s="2" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>102</v>
       </c>
@@ -11581,7 +11584,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
         <v>103</v>
       </c>
@@ -11601,7 +11604,7 @@
       <c r="G323" s="2"/>
       <c r="H323" s="24"/>
     </row>
-    <row r="324" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>103</v>
       </c>
@@ -11618,7 +11621,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
         <v>103</v>
       </c>
@@ -11638,7 +11641,7 @@
       <c r="G325" s="29"/>
       <c r="H325" s="2"/>
     </row>
-    <row r="326" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
         <v>104</v>
       </c>
@@ -11656,7 +11659,7 @@
       <c r="G326" s="2"/>
       <c r="H326" s="2"/>
     </row>
-    <row r="327" spans="1:8" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>105</v>
       </c>
@@ -11673,7 +11676,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="328" spans="1:8" s="2" customFormat="1" ht="256.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:8" s="2" customFormat="1" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>105</v>
       </c>
@@ -11690,7 +11693,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="7" t="s">
         <v>106</v>
       </c>
@@ -11710,7 +11713,7 @@
       <c r="G329" s="2"/>
       <c r="H329" s="2"/>
     </row>
-    <row r="330" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="7" t="s">
         <v>106</v>
       </c>
@@ -11729,10 +11732,10 @@
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
       <c r="H330" s="24">
-        <v>44114</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="7" t="s">
         <v>106</v>
       </c>
@@ -11742,15 +11745,19 @@
       <c r="C331" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="D331" s="7"/>
+      <c r="D331" s="7" t="s">
+        <v>1578</v>
+      </c>
       <c r="E331" s="7" t="s">
         <v>729</v>
       </c>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
-      <c r="H331" s="2"/>
-    </row>
-    <row r="332" spans="1:8" s="2" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="H331" s="24">
+        <v>44089</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" s="2" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>106</v>
       </c>
@@ -11767,7 +11774,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
         <v>106</v>
       </c>
@@ -11785,7 +11792,7 @@
       <c r="G333" s="2"/>
       <c r="H333" s="2"/>
     </row>
-    <row r="334" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="7" t="s">
         <v>106</v>
       </c>
@@ -11803,7 +11810,7 @@
       <c r="G334" s="2"/>
       <c r="H334" s="2"/>
     </row>
-    <row r="335" spans="1:8" s="2" customFormat="1" ht="213.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:8" s="2" customFormat="1" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>106</v>
       </c>
@@ -11820,7 +11827,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="336" spans="1:8" s="2" customFormat="1" ht="313.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:8" s="2" customFormat="1" ht="360" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>106</v>
       </c>
@@ -11837,7 +11844,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="337" spans="1:8" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:8" s="2" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>106</v>
       </c>
@@ -11854,7 +11861,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="7" t="s">
         <v>107</v>
       </c>
@@ -11868,7 +11875,7 @@
       <c r="G338" s="2"/>
       <c r="H338" s="2"/>
     </row>
-    <row r="339" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>108</v>
       </c>
@@ -11885,7 +11892,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="7" t="s">
         <v>108</v>
       </c>
@@ -11903,7 +11910,7 @@
       <c r="G340" s="2"/>
       <c r="H340" s="2"/>
     </row>
-    <row r="341" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>108</v>
       </c>
@@ -11920,7 +11927,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="342" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>108</v>
       </c>
@@ -11937,7 +11944,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="343" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>108</v>
       </c>
@@ -11954,7 +11961,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="344" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>108</v>
       </c>
@@ -11971,7 +11978,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="345" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>108</v>
       </c>
@@ -11988,7 +11995,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="346" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>108</v>
       </c>
@@ -12005,7 +12012,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="347" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>108</v>
       </c>
@@ -12022,7 +12029,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="348" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>108</v>
       </c>
@@ -12039,7 +12046,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="349" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>108</v>
       </c>
@@ -12056,7 +12063,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="350" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>108</v>
       </c>
@@ -12073,7 +12080,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="351" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>108</v>
       </c>
@@ -12090,7 +12097,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="352" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>108</v>
       </c>
@@ -12107,7 +12114,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
         <v>108</v>
       </c>
@@ -12125,7 +12132,7 @@
       <c r="G353" s="2"/>
       <c r="H353" s="2"/>
     </row>
-    <row r="354" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>108</v>
       </c>
@@ -12142,7 +12149,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="7" t="s">
         <v>108</v>
       </c>
@@ -12160,7 +12167,7 @@
       <c r="G355" s="2"/>
       <c r="H355" s="2"/>
     </row>
-    <row r="356" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:8" s="2" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>108</v>
       </c>
@@ -12177,7 +12184,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="7" t="s">
         <v>109</v>
       </c>
@@ -12195,7 +12202,7 @@
       <c r="G357" s="2"/>
       <c r="H357" s="2"/>
     </row>
-    <row r="358" spans="1:8" s="2" customFormat="1" ht="185.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:8" s="2" customFormat="1" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>109</v>
       </c>
@@ -12212,7 +12219,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="359" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>110</v>
       </c>
@@ -12229,7 +12236,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="360" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>110</v>
       </c>
@@ -12246,7 +12253,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="361" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>110</v>
       </c>
@@ -12263,7 +12270,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="7" t="s">
         <v>111</v>
       </c>
@@ -12277,7 +12284,7 @@
       <c r="G362" s="2"/>
       <c r="H362" s="2"/>
     </row>
-    <row r="363" spans="1:8" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>112</v>
       </c>
@@ -12294,7 +12301,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="364" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:8" s="2" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>112</v>
       </c>
@@ -12311,7 +12318,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="365" spans="1:8" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:8" s="2" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>112</v>
       </c>
@@ -12328,7 +12335,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="7" t="s">
         <v>112</v>
       </c>
@@ -12346,7 +12353,7 @@
       <c r="G366" s="2"/>
       <c r="H366" s="2"/>
     </row>
-    <row r="367" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="7" t="s">
         <v>112</v>
       </c>
@@ -12364,7 +12371,7 @@
       <c r="G367" s="2"/>
       <c r="H367" s="2"/>
     </row>
-    <row r="368" spans="1:8" s="2" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>112</v>
       </c>
@@ -12381,7 +12388,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="7" t="s">
         <v>112</v>
       </c>
@@ -12399,7 +12406,7 @@
       <c r="G369" s="2"/>
       <c r="H369" s="2"/>
     </row>
-    <row r="370" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="7" t="s">
         <v>112</v>
       </c>
@@ -12417,7 +12424,7 @@
       <c r="G370" s="2"/>
       <c r="H370" s="2"/>
     </row>
-    <row r="371" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>113</v>
       </c>
@@ -12434,7 +12441,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="372" spans="1:8" s="2" customFormat="1" ht="327.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:8" s="2" customFormat="1" ht="390" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>113</v>
       </c>
@@ -12451,7 +12458,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="373" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>113</v>
       </c>
@@ -12468,7 +12475,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="374" spans="1:8" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>113</v>
       </c>
@@ -12485,7 +12492,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="7" t="s">
         <v>113</v>
       </c>
@@ -12503,7 +12510,7 @@
       <c r="G375" s="2"/>
       <c r="H375" s="2"/>
     </row>
-    <row r="376" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>113</v>
       </c>
@@ -12520,7 +12527,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="377" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>113</v>
       </c>
@@ -12537,7 +12544,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="378" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>113</v>
       </c>
@@ -12554,7 +12561,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="7" t="s">
         <v>113</v>
       </c>
@@ -12572,7 +12579,7 @@
       <c r="G379" s="2"/>
       <c r="H379" s="2"/>
     </row>
-    <row r="380" spans="1:8" s="2" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:8" s="2" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>113</v>
       </c>
@@ -12589,7 +12596,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="381" spans="1:8" s="2" customFormat="1" ht="213.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:8" s="2" customFormat="1" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>113</v>
       </c>
@@ -12606,7 +12613,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="382" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>113</v>
       </c>
@@ -12623,7 +12630,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="383" spans="1:8" s="2" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:8" s="2" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>113</v>
       </c>
@@ -12640,7 +12647,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="384" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:8" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>113</v>
       </c>
@@ -12657,7 +12664,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="385" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>113</v>
       </c>
@@ -12674,7 +12681,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="386" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>114</v>
       </c>
@@ -12691,7 +12698,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="387" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>114</v>
       </c>
@@ -12708,7 +12715,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="7" t="s">
         <v>115</v>
       </c>
@@ -12724,7 +12731,7 @@
       <c r="G388" s="2"/>
       <c r="H388" s="2"/>
     </row>
-    <row r="389" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>115</v>
       </c>
@@ -12739,7 +12746,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="7" t="s">
         <v>116</v>
       </c>
@@ -12751,7 +12758,7 @@
       <c r="G390" s="2"/>
       <c r="H390" s="2"/>
     </row>
-    <row r="391" spans="1:8" s="2" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>117</v>
       </c>
@@ -12768,7 +12775,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="392" spans="1:8" s="2" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:8" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>117</v>
       </c>
@@ -12785,7 +12792,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="393" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>118</v>
       </c>
@@ -12802,7 +12809,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="394" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>118</v>
       </c>
@@ -12819,7 +12826,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="395" spans="1:8" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>118</v>
       </c>
@@ -12836,7 +12843,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="7" t="s">
         <v>119</v>
       </c>
@@ -12850,7 +12857,7 @@
       <c r="G396" s="2"/>
       <c r="H396" s="2"/>
     </row>
-    <row r="397" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="7" t="s">
         <v>120</v>
       </c>
@@ -12864,7 +12871,7 @@
       <c r="G397" s="2"/>
       <c r="H397" s="2"/>
     </row>
-    <row r="398" spans="1:8" s="2" customFormat="1" ht="228" hidden="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:8" s="2" customFormat="1" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>121</v>
       </c>
@@ -12879,7 +12886,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="399" spans="1:8" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:8" s="2" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>121</v>
       </c>
@@ -12894,7 +12901,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="7" t="s">
         <v>121</v>
       </c>
@@ -12910,7 +12917,7 @@
       <c r="G400" s="2"/>
       <c r="H400" s="2"/>
     </row>
-    <row r="401" spans="1:8" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:8" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>122</v>
       </c>
@@ -12927,7 +12934,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
         <v>122</v>
       </c>
@@ -12945,7 +12952,7 @@
       <c r="G402" s="2"/>
       <c r="H402" s="2"/>
     </row>
-    <row r="403" spans="1:8" s="2" customFormat="1" ht="285" hidden="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:8" s="2" customFormat="1" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>122</v>
       </c>
@@ -12962,7 +12969,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="404" spans="1:8" s="2" customFormat="1" ht="156.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:8" s="2" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>123</v>
       </c>
@@ -12979,7 +12986,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="7" t="s">
         <v>123</v>
       </c>
@@ -12997,7 +13004,7 @@
       <c r="G405" s="2"/>
       <c r="H405" s="2"/>
     </row>
-    <row r="406" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="7" t="s">
         <v>124</v>
       </c>
@@ -13013,7 +13020,7 @@
       <c r="G406" s="2"/>
       <c r="H406" s="2"/>
     </row>
-    <row r="407" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="7" t="s">
         <v>124</v>
       </c>
@@ -13029,7 +13036,7 @@
       <c r="G407" s="2"/>
       <c r="H407" s="2"/>
     </row>
-    <row r="408" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="7" t="s">
         <v>124</v>
       </c>
@@ -13045,7 +13052,7 @@
       <c r="G408" s="2"/>
       <c r="H408" s="2"/>
     </row>
-    <row r="409" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="7" t="s">
         <v>124</v>
       </c>
@@ -13061,7 +13068,7 @@
       <c r="G409" s="2"/>
       <c r="H409" s="2"/>
     </row>
-    <row r="410" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="7" t="s">
         <v>125</v>
       </c>
@@ -13075,7 +13082,7 @@
       <c r="G410" s="2"/>
       <c r="H410" s="2"/>
     </row>
-    <row r="411" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="7" t="s">
         <v>126</v>
       </c>
@@ -13091,7 +13098,7 @@
       <c r="G411" s="2"/>
       <c r="H411" s="2"/>
     </row>
-    <row r="412" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="7" t="s">
         <v>126</v>
       </c>
@@ -13107,7 +13114,7 @@
       <c r="G412" s="2"/>
       <c r="H412" s="2"/>
     </row>
-    <row r="413" spans="1:8" s="2" customFormat="1" ht="171" hidden="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:8" s="2" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>127</v>
       </c>
@@ -13124,7 +13131,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="7" t="s">
         <v>133</v>
       </c>
@@ -13138,7 +13145,7 @@
       <c r="G414" s="2"/>
       <c r="H414" s="2"/>
     </row>
-    <row r="415" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="7" t="s">
         <v>134</v>
       </c>
@@ -13152,7 +13159,7 @@
       <c r="G415" s="2"/>
       <c r="H415" s="2"/>
     </row>
-    <row r="416" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="7" t="s">
         <v>135</v>
       </c>
@@ -13166,7 +13173,7 @@
       <c r="G416" s="2"/>
       <c r="H416" s="2"/>
     </row>
-    <row r="417" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="7" t="s">
         <v>136</v>
       </c>
@@ -13180,7 +13187,7 @@
       <c r="G417" s="2"/>
       <c r="H417" s="2"/>
     </row>
-    <row r="418" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="7" t="s">
         <v>137</v>
       </c>
@@ -13194,7 +13201,7 @@
       <c r="G418" s="2"/>
       <c r="H418" s="2"/>
     </row>
-    <row r="419" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="7" t="s">
         <v>138</v>
       </c>
@@ -13208,7 +13215,7 @@
       <c r="G419" s="2"/>
       <c r="H419" s="2"/>
     </row>
-    <row r="420" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="7" t="s">
         <v>131</v>
       </c>
@@ -13220,7 +13227,7 @@
       <c r="G420" s="2"/>
       <c r="H420" s="2"/>
     </row>
-    <row r="421" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="7" t="s">
         <v>132</v>
       </c>
@@ -13236,7 +13243,7 @@
       <c r="G421" s="2"/>
       <c r="H421" s="2"/>
     </row>
-    <row r="422" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="7" t="s">
         <v>132</v>
       </c>
@@ -13248,7 +13255,7 @@
       <c r="G422" s="2"/>
       <c r="H422" s="2"/>
     </row>
-    <row r="423" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="7" t="s">
         <v>139</v>
       </c>
@@ -13262,7 +13269,7 @@
       <c r="G423" s="2"/>
       <c r="H423" s="2"/>
     </row>
-    <row r="424" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="7" t="s">
         <v>140</v>
       </c>
@@ -13276,7 +13283,7 @@
       <c r="G424" s="2"/>
       <c r="H424" s="2"/>
     </row>
-    <row r="425" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="7" t="s">
         <v>141</v>
       </c>
@@ -13290,7 +13297,7 @@
       <c r="G425" s="2"/>
       <c r="H425" s="2"/>
     </row>
-    <row r="426" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="7" t="s">
         <v>142</v>
       </c>
@@ -13304,7 +13311,7 @@
       <c r="G426" s="2"/>
       <c r="H426" s="2"/>
     </row>
-    <row r="427" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="7" t="s">
         <v>143</v>
       </c>
@@ -13335,16 +13342,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.73046875" style="2"/>
+    <col min="1" max="1" width="40.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>744</v>
       </c>
@@ -13358,7 +13365,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>748</v>
       </c>
@@ -13372,7 +13379,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>748</v>
       </c>
@@ -13386,7 +13393,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>748</v>
       </c>
@@ -13400,7 +13407,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>756</v>
       </c>
@@ -13412,7 +13419,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>756</v>
       </c>
@@ -13424,7 +13431,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>756</v>
       </c>
@@ -13436,7 +13443,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>761</v>
       </c>
@@ -13450,7 +13457,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>761</v>
       </c>
@@ -13464,7 +13471,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>761</v>
       </c>
@@ -13478,7 +13485,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>769</v>
       </c>
@@ -13492,7 +13499,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>769</v>
       </c>
@@ -13506,7 +13513,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>769</v>
       </c>
@@ -13520,7 +13527,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>769</v>
       </c>
@@ -13534,7 +13541,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>769</v>
       </c>
@@ -13548,7 +13555,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>769</v>
       </c>
@@ -13562,7 +13569,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>769</v>
       </c>
@@ -13576,7 +13583,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>769</v>
       </c>
@@ -13590,7 +13597,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>769</v>
       </c>
@@ -13604,7 +13611,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>769</v>
       </c>
@@ -13618,7 +13625,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>769</v>
       </c>
@@ -13632,7 +13639,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>769</v>
       </c>
@@ -13646,7 +13653,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>769</v>
       </c>
@@ -13660,7 +13667,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>769</v>
       </c>
@@ -13674,7 +13681,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>769</v>
       </c>
@@ -13688,7 +13695,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>769</v>
       </c>
@@ -13702,7 +13709,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>769</v>
       </c>
@@ -13716,7 +13723,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>769</v>
       </c>
@@ -13730,7 +13737,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>769</v>
       </c>
@@ -13744,7 +13751,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>809</v>
       </c>
@@ -13758,7 +13765,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>809</v>
       </c>
@@ -13772,7 +13779,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>809</v>
       </c>
@@ -13786,7 +13793,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>809</v>
       </c>
@@ -13800,7 +13807,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>809</v>
       </c>
@@ -13814,7 +13821,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>821</v>
       </c>
@@ -13828,7 +13835,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>821</v>
       </c>
@@ -13842,7 +13849,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>821</v>
       </c>
@@ -13856,7 +13863,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>829</v>
       </c>
@@ -13870,7 +13877,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>829</v>
       </c>
@@ -13884,7 +13891,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>829</v>
       </c>
@@ -13898,7 +13905,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>829</v>
       </c>
@@ -13912,7 +13919,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>829</v>
       </c>
@@ -13926,7 +13933,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>829</v>
       </c>
@@ -13940,7 +13947,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>829</v>
       </c>
@@ -13954,7 +13961,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>829</v>
       </c>
@@ -13968,7 +13975,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>829</v>
       </c>
@@ -13982,7 +13989,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>829</v>
       </c>
@@ -13996,7 +14003,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>829</v>
       </c>
@@ -14010,7 +14017,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>829</v>
       </c>
@@ -14024,7 +14031,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>829</v>
       </c>
@@ -14038,7 +14045,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>829</v>
       </c>
@@ -14052,7 +14059,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>829</v>
       </c>
@@ -14066,7 +14073,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>829</v>
       </c>
@@ -14080,7 +14087,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>829</v>
       </c>
@@ -14094,7 +14101,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>829</v>
       </c>
@@ -14108,7 +14115,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>829</v>
       </c>
@@ -14122,7 +14129,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>829</v>
       </c>
@@ -14136,7 +14143,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>829</v>
       </c>
@@ -14150,7 +14157,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>829</v>
       </c>
@@ -14164,7 +14171,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>829</v>
       </c>
@@ -14178,7 +14185,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>829</v>
       </c>
@@ -14192,7 +14199,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>829</v>
       </c>
@@ -14206,7 +14213,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>829</v>
       </c>
@@ -14220,7 +14227,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>829</v>
       </c>
@@ -14234,7 +14241,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>829</v>
       </c>
@@ -14248,7 +14255,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>829</v>
       </c>
@@ -14262,7 +14269,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>829</v>
       </c>
@@ -14276,7 +14283,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>829</v>
       </c>
@@ -14290,7 +14297,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>829</v>
       </c>
@@ -14304,7 +14311,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>829</v>
       </c>
@@ -14318,7 +14325,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>829</v>
       </c>
@@ -14332,7 +14339,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>829</v>
       </c>
@@ -14346,7 +14353,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>829</v>
       </c>
@@ -14360,7 +14367,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>829</v>
       </c>
@@ -14374,7 +14381,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>829</v>
       </c>
@@ -14388,7 +14395,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>829</v>
       </c>
@@ -14402,7 +14409,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>829</v>
       </c>
@@ -14416,7 +14423,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>829</v>
       </c>
@@ -14430,7 +14437,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>829</v>
       </c>
@@ -14444,7 +14451,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>829</v>
       </c>
@@ -14458,7 +14465,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>829</v>
       </c>
@@ -14472,7 +14479,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>829</v>
       </c>
@@ -14486,7 +14493,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>829</v>
       </c>
@@ -14500,7 +14507,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>829</v>
       </c>
@@ -14514,7 +14521,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>829</v>
       </c>
@@ -14528,7 +14535,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>829</v>
       </c>
@@ -14542,7 +14549,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>829</v>
       </c>
@@ -14556,7 +14563,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>829</v>
       </c>
@@ -14570,7 +14577,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>829</v>
       </c>
@@ -14584,7 +14591,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>829</v>
       </c>
@@ -14598,7 +14605,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>829</v>
       </c>
@@ -14612,7 +14619,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>829</v>
       </c>
@@ -14626,7 +14633,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>941</v>
       </c>
@@ -14636,7 +14643,7 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>943</v>
       </c>
@@ -14650,7 +14657,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>943</v>
       </c>
@@ -14664,7 +14671,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>943</v>
       </c>
@@ -14678,7 +14685,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>943</v>
       </c>
@@ -14692,7 +14699,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>943</v>
       </c>
@@ -14706,7 +14713,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>943</v>
       </c>
@@ -14720,7 +14727,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>943</v>
       </c>
@@ -14734,7 +14741,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>943</v>
       </c>
@@ -14748,7 +14755,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>943</v>
       </c>
@@ -14762,7 +14769,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>943</v>
       </c>
@@ -14776,7 +14783,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>943</v>
       </c>
@@ -14790,7 +14797,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>943</v>
       </c>
@@ -14804,7 +14811,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>943</v>
       </c>
@@ -14818,7 +14825,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>943</v>
       </c>
@@ -14832,7 +14839,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>943</v>
       </c>
@@ -14846,7 +14853,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>943</v>
       </c>
@@ -14860,7 +14867,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>943</v>
       </c>
@@ -14874,7 +14881,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>943</v>
       </c>
@@ -14888,7 +14895,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>943</v>
       </c>
@@ -14902,7 +14909,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>943</v>
       </c>
@@ -14916,7 +14923,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>985</v>
       </c>
@@ -14930,7 +14937,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>985</v>
       </c>
@@ -14944,7 +14951,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>985</v>
       </c>
@@ -14958,7 +14965,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>993</v>
       </c>
@@ -14972,7 +14979,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>993</v>
       </c>
@@ -14986,7 +14993,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>993</v>
       </c>
@@ -15000,7 +15007,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>993</v>
       </c>
@@ -15014,7 +15021,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>993</v>
       </c>
@@ -15028,7 +15035,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="285" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" ht="330" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>1005</v>
       </c>
@@ -15038,7 +15045,7 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>1007</v>
       </c>
@@ -15046,7 +15053,7 @@
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>1008</v>
       </c>
@@ -15056,7 +15063,7 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15070,7 +15077,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15084,7 +15091,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15098,7 +15105,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15112,7 +15119,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15126,7 +15133,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15140,7 +15147,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15154,7 +15161,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15168,7 +15175,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15182,7 +15189,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15196,7 +15203,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15210,7 +15217,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15224,7 +15231,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15238,7 +15245,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15252,7 +15259,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15266,7 +15273,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15280,7 +15287,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15294,7 +15301,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15308,7 +15315,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15322,7 +15329,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15336,7 +15343,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15350,7 +15357,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15364,7 +15371,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15378,7 +15385,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>1058</v>
       </c>
@@ -15392,7 +15399,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>1058</v>
       </c>
@@ -15406,7 +15413,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>1058</v>
       </c>
@@ -15420,7 +15427,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>1058</v>
       </c>
@@ -15434,7 +15441,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>1058</v>
       </c>
@@ -15448,7 +15455,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>1058</v>
       </c>
@@ -15462,7 +15469,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>1072</v>
       </c>
@@ -15472,7 +15479,7 @@
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15486,7 +15493,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15500,7 +15507,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15514,7 +15521,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15528,7 +15535,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15542,7 +15549,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>1082</v>
       </c>
@@ -15556,7 +15563,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>1088</v>
       </c>
@@ -15570,7 +15577,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>1088</v>
       </c>
@@ -15584,7 +15591,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>1088</v>
       </c>
@@ -15598,7 +15605,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>1088</v>
       </c>
@@ -15612,7 +15619,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>1088</v>
       </c>
@@ -15626,7 +15633,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>1088</v>
       </c>
@@ -15640,7 +15647,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>1088</v>
       </c>
@@ -15654,7 +15661,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>1088</v>
       </c>
@@ -15668,7 +15675,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>1088</v>
       </c>
@@ -15682,7 +15689,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>1088</v>
       </c>
@@ -15696,7 +15703,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>1108</v>
       </c>
@@ -15710,7 +15717,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>1108</v>
       </c>
@@ -15724,7 +15731,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>1108</v>
       </c>
@@ -15738,7 +15745,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>1108</v>
       </c>
@@ -15752,7 +15759,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>1118</v>
       </c>
@@ -15766,7 +15773,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>1118</v>
       </c>
@@ -15780,7 +15787,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>1124</v>
       </c>
@@ -15794,7 +15801,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>1124</v>
       </c>
@@ -15808,7 +15815,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>1130</v>
       </c>
@@ -15822,7 +15829,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>1130</v>
       </c>
@@ -15836,7 +15843,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>1130</v>
       </c>
@@ -15850,7 +15857,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>1130</v>
       </c>
@@ -15864,7 +15871,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>1130</v>
       </c>
@@ -15878,7 +15885,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>1130</v>
       </c>
@@ -15892,7 +15899,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>1130</v>
       </c>
@@ -15906,7 +15913,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>1146</v>
       </c>
@@ -15920,7 +15927,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>1146</v>
       </c>
@@ -15934,7 +15941,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>1146</v>
       </c>
@@ -15948,7 +15955,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>1154</v>
       </c>
@@ -15962,7 +15969,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>1154</v>
       </c>
@@ -15976,7 +15983,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>1154</v>
       </c>
@@ -15990,7 +15997,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>1162</v>
       </c>
@@ -16004,7 +16011,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>1162</v>
       </c>
@@ -16018,7 +16025,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>1162</v>
       </c>
@@ -16032,7 +16039,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>1162</v>
       </c>
@@ -16046,7 +16053,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>1162</v>
       </c>
@@ -16060,7 +16067,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>1162</v>
       </c>
@@ -16074,7 +16081,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>1162</v>
       </c>
@@ -16088,7 +16095,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>1162</v>
       </c>
@@ -16102,7 +16109,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>1180</v>
       </c>
@@ -16110,7 +16117,7 @@
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>1181</v>
       </c>
@@ -16124,7 +16131,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>1181</v>
       </c>
@@ -16138,7 +16145,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>1187</v>
       </c>
@@ -16152,7 +16159,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>1187</v>
       </c>
@@ -16166,7 +16173,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>1187</v>
       </c>
@@ -16180,7 +16187,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>1187</v>
       </c>
@@ -16194,7 +16201,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>1195</v>
       </c>
@@ -16204,7 +16211,7 @@
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
     </row>
-    <row r="208" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>1197</v>
       </c>
@@ -16218,7 +16225,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>1197</v>
       </c>
@@ -16232,7 +16239,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>1197</v>
       </c>
@@ -16246,7 +16253,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>1197</v>
       </c>
@@ -16260,7 +16267,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>1205</v>
       </c>
@@ -16274,7 +16281,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>1205</v>
       </c>
@@ -16288,7 +16295,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>1205</v>
       </c>
@@ -16302,7 +16309,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>1205</v>
       </c>
@@ -16316,7 +16323,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>1205</v>
       </c>
@@ -16330,7 +16337,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>1205</v>
       </c>
@@ -16344,7 +16351,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>1217</v>
       </c>
@@ -16356,7 +16363,7 @@
       </c>
       <c r="D218" s="1"/>
     </row>
-    <row r="219" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16370,7 +16377,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16384,7 +16391,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16398,7 +16405,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16412,7 +16419,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16426,7 +16433,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16440,7 +16447,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16454,7 +16461,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16468,7 +16475,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16482,7 +16489,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16496,7 +16503,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16510,7 +16517,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16524,7 +16531,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16538,7 +16545,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16552,7 +16559,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16566,7 +16573,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16580,7 +16587,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16594,7 +16601,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16608,7 +16615,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16622,7 +16629,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16636,7 +16643,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16650,7 +16657,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16664,7 +16671,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16678,7 +16685,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16692,7 +16699,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16706,7 +16713,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16720,7 +16727,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16734,7 +16741,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16748,7 +16755,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16762,7 +16769,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16776,7 +16783,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16790,7 +16797,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16804,7 +16811,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16818,7 +16825,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16832,7 +16839,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16846,7 +16853,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16860,7 +16867,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>1294</v>
       </c>
@@ -16874,7 +16881,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>1294</v>
       </c>
@@ -16888,7 +16895,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>1294</v>
       </c>
@@ -16902,7 +16909,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>1302</v>
       </c>
@@ -16916,7 +16923,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>1302</v>
       </c>
@@ -16930,7 +16937,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>1302</v>
       </c>
@@ -16944,7 +16951,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>1310</v>
       </c>
@@ -16958,7 +16965,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>1310</v>
       </c>
@@ -16972,7 +16979,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>1310</v>
       </c>
@@ -16986,7 +16993,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>1318</v>
       </c>
@@ -17000,7 +17007,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>1318</v>
       </c>
@@ -17014,7 +17021,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>1318</v>
       </c>
@@ -17028,7 +17035,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>1318</v>
       </c>
@@ -17042,7 +17049,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>1318</v>
       </c>
@@ -17056,7 +17063,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>1318</v>
       </c>
@@ -17068,7 +17075,7 @@
       </c>
       <c r="D269" s="1"/>
     </row>
-    <row r="270" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17082,7 +17089,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>1331</v>
       </c>
@@ -17096,7 +17103,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>1337</v>
       </c>
@@ -17110,7 +17117,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>1337</v>
       </c>
@@ -17124,7 +17131,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>1337</v>
       </c>
@@ -17138,7 +17145,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>1337</v>
       </c>
@@ -17152,7 +17159,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>1337</v>
       </c>
@@ -17166,7 +17173,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>1349</v>
       </c>
@@ -17176,7 +17183,7 @@
       </c>
       <c r="D277" s="1"/>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>1349</v>
       </c>
@@ -17186,7 +17193,7 @@
       </c>
       <c r="D278" s="1"/>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>1349</v>
       </c>
@@ -17196,7 +17203,7 @@
       </c>
       <c r="D279" s="1"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>1353</v>
       </c>
@@ -17208,7 +17215,7 @@
       </c>
       <c r="D280" s="1"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>1353</v>
       </c>
@@ -17220,7 +17227,7 @@
       </c>
       <c r="D281" s="1"/>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>1353</v>
       </c>
@@ -17232,7 +17239,7 @@
       </c>
       <c r="D282" s="1"/>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>1353</v>
       </c>
@@ -17244,7 +17251,7 @@
       </c>
       <c r="D283" s="1"/>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>1353</v>
       </c>
@@ -17256,7 +17263,7 @@
       </c>
       <c r="D284" s="1"/>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>1353</v>
       </c>
@@ -17268,7 +17275,7 @@
       </c>
       <c r="D285" s="1"/>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>1361</v>
       </c>
@@ -17276,7 +17283,7 @@
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>1362</v>
       </c>
@@ -17286,7 +17293,7 @@
       </c>
       <c r="D287" s="1"/>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>1362</v>
       </c>
@@ -17296,7 +17303,7 @@
       </c>
       <c r="D288" s="1"/>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>1365</v>
       </c>
@@ -17306,7 +17313,7 @@
       </c>
       <c r="D289" s="1"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>1365</v>
       </c>
@@ -17316,7 +17323,7 @@
       </c>
       <c r="D290" s="1"/>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>1368</v>
       </c>
@@ -17326,7 +17333,7 @@
       </c>
       <c r="D291" s="1"/>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>1368</v>
       </c>
@@ -17336,7 +17343,7 @@
       </c>
       <c r="D292" s="1"/>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>1371</v>
       </c>
@@ -17346,7 +17353,7 @@
       </c>
       <c r="D293" s="1"/>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>1371</v>
       </c>
@@ -17356,7 +17363,7 @@
       </c>
       <c r="D294" s="1"/>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>1371</v>
       </c>
@@ -17366,7 +17373,7 @@
       </c>
       <c r="D295" s="1"/>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>1371</v>
       </c>
@@ -17376,7 +17383,7 @@
       </c>
       <c r="D296" s="1"/>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>1371</v>
       </c>
@@ -17386,7 +17393,7 @@
       </c>
       <c r="D297" s="1"/>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>1377</v>
       </c>
@@ -17398,7 +17405,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>1377</v>
       </c>
@@ -17410,7 +17417,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>1377</v>
       </c>
@@ -17422,7 +17429,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>1384</v>
       </c>
@@ -17432,7 +17439,7 @@
       </c>
       <c r="D301" s="1"/>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>1384</v>
       </c>
@@ -17442,7 +17449,7 @@
       </c>
       <c r="D302" s="1"/>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>1387</v>
       </c>
@@ -17450,7 +17457,7 @@
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>1388</v>
       </c>
@@ -17462,7 +17469,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>1388</v>
       </c>
@@ -17474,7 +17481,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>1388</v>
       </c>
@@ -17486,7 +17493,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>1388</v>
       </c>
@@ -17498,7 +17505,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>1388</v>
       </c>
@@ -17510,7 +17517,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>1388</v>
       </c>
@@ -17522,7 +17529,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>1401</v>
       </c>
@@ -17534,7 +17541,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>1401</v>
       </c>
@@ -17546,7 +17553,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>1401</v>
       </c>
@@ -17558,7 +17565,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>1401</v>
       </c>
@@ -17570,7 +17577,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17582,7 +17589,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17594,7 +17601,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17606,7 +17613,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17618,7 +17625,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17630,7 +17637,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17642,7 +17649,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17654,7 +17661,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17666,7 +17673,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17678,7 +17685,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17690,7 +17697,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17702,7 +17709,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17714,7 +17721,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17726,7 +17733,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17738,7 +17745,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17750,7 +17757,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17762,7 +17769,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17774,7 +17781,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17786,7 +17793,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17798,7 +17805,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17810,7 +17817,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17822,7 +17829,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17834,7 +17841,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>1453</v>
       </c>
@@ -17842,7 +17849,7 @@
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>1454</v>
       </c>
@@ -17854,7 +17861,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>1454</v>
       </c>
@@ -17866,7 +17873,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>1454</v>
       </c>
@@ -17878,7 +17885,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>1461</v>
       </c>
@@ -17888,7 +17895,7 @@
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>1462</v>
       </c>
@@ -17900,7 +17907,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>1462</v>
       </c>
@@ -17912,7 +17919,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>1462</v>
       </c>
@@ -17924,7 +17931,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>1462</v>
       </c>
@@ -17936,7 +17943,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>1462</v>
       </c>
@@ -17948,7 +17955,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>1462</v>
       </c>
@@ -17960,7 +17967,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>1475</v>
       </c>
@@ -17970,7 +17977,7 @@
       </c>
       <c r="D347" s="1"/>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>1475</v>
       </c>
@@ -17980,7 +17987,7 @@
       </c>
       <c r="D348" s="1"/>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>1475</v>
       </c>
@@ -17990,7 +17997,7 @@
       </c>
       <c r="D349" s="1"/>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>1475</v>
       </c>
@@ -18000,7 +18007,7 @@
       </c>
       <c r="D350" s="1"/>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>1475</v>
       </c>
@@ -18010,7 +18017,7 @@
       </c>
       <c r="D351" s="1"/>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>1475</v>
       </c>
@@ -18020,7 +18027,7 @@
       </c>
       <c r="D352" s="1"/>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>1475</v>
       </c>
@@ -18030,7 +18037,7 @@
       </c>
       <c r="D353" s="1"/>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>1483</v>
       </c>
@@ -18042,7 +18049,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>1483</v>
       </c>
@@ -18054,7 +18061,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>1488</v>
       </c>
@@ -18066,7 +18073,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>1488</v>
       </c>
@@ -18078,7 +18085,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>1493</v>
       </c>
@@ -18090,7 +18097,7 @@
       </c>
       <c r="D358" s="1"/>
     </row>
-    <row r="359" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>1493</v>
       </c>
@@ -18102,7 +18109,7 @@
       </c>
       <c r="D359" s="1"/>
     </row>
-    <row r="360" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>1493</v>
       </c>
@@ -18114,7 +18121,7 @@
       </c>
       <c r="D360" s="1"/>
     </row>
-    <row r="361" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>1493</v>
       </c>
@@ -18126,7 +18133,7 @@
       </c>
       <c r="D361" s="1"/>
     </row>
-    <row r="362" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>1493</v>
       </c>
@@ -18138,7 +18145,7 @@
       </c>
       <c r="D362" s="1"/>
     </row>
-    <row r="363" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>1500</v>
       </c>
@@ -18150,7 +18157,7 @@
       </c>
       <c r="D363" s="1"/>
     </row>
-    <row r="364" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>1500</v>
       </c>
@@ -18162,7 +18169,7 @@
       </c>
       <c r="D364" s="1"/>
     </row>
-    <row r="365" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>1500</v>
       </c>
@@ -18174,7 +18181,7 @@
       </c>
       <c r="D365" s="1"/>
     </row>
-    <row r="366" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>1500</v>
       </c>
@@ -18186,7 +18193,7 @@
       </c>
       <c r="D366" s="1"/>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>1506</v>
       </c>
@@ -18198,7 +18205,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>1506</v>
       </c>
@@ -18210,7 +18217,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>1506</v>
       </c>
@@ -18222,7 +18229,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>1506</v>
       </c>
@@ -18234,7 +18241,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>1506</v>
       </c>
@@ -18246,7 +18253,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>1516</v>
       </c>
@@ -18256,7 +18263,7 @@
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>1518</v>
       </c>
@@ -18264,7 +18271,7 @@
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>1519</v>
       </c>
@@ -18288,172 +18295,172 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.86328125" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -18471,712 +18478,712 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>1521</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>544</v>
       </c>
